--- a/INTRADAY-DATA/USSTOCKS(HIGHCORRELATIONWITHBTC)-DATA/BTC-DATA/BTC_6M_240.xlsx
+++ b/INTRADAY-DATA/USSTOCKS(HIGHCORRELATIONWITHBTC)-DATA/BTC-DATA/BTC_6M_240.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AgentUser\AppData\Local\Temp\CitrixClient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertozuniga/Desktop/kickstartstrategies/INTRADAY-DATA/USSTOCKS(HIGHCORRELATIONWITHBTC)-DATA/BTC-DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D94188-7B8B-0C40-94E5-5CBFEA52CF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21225" windowHeight="9000"/>
+    <workbookView xWindow="60" yWindow="1300" windowWidth="21220" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,20 +350,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1086"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A1010" workbookViewId="0">
+      <selection activeCell="A1007" sqref="A1007:B1086"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -370,7 +371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44729.375</v>
       </c>
@@ -378,7 +379,7 @@
         <v>20676.78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44729.208333333336</v>
       </c>
@@ -386,7 +387,7 @@
         <v>20623.03</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44729.041666666664</v>
       </c>
@@ -394,7 +395,7 @@
         <v>21042.59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44728.875</v>
       </c>
@@ -402,7 +403,7 @@
         <v>20510.63</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44728.708333333336</v>
       </c>
@@ -410,7 +411,7 @@
         <v>20336.939999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44728.541666666664</v>
       </c>
@@ -418,7 +419,7 @@
         <v>20664.22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44728.375</v>
       </c>
@@ -426,7 +427,7 @@
         <v>21142.22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44728.208333333336</v>
       </c>
@@ -434,7 +435,7 @@
         <v>21126.36</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44728.041666666664</v>
       </c>
@@ -442,7 +443,7 @@
         <v>21760.639999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44727.875</v>
       </c>
@@ -450,7 +451,7 @@
         <v>22071.93</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44727.708333333336</v>
       </c>
@@ -458,7 +459,7 @@
         <v>22653.23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44727.541666666664</v>
       </c>
@@ -466,7 +467,7 @@
         <v>21661.94</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44727.375</v>
       </c>
@@ -474,7 +475,7 @@
         <v>20691.96</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44727.208333333336</v>
       </c>
@@ -482,7 +483,7 @@
         <v>21165.45</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44727.041666666664</v>
       </c>
@@ -490,7 +491,7 @@
         <v>20220.82</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44726.875</v>
       </c>
@@ -498,7 +499,7 @@
         <v>21120.29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44726.708333333336</v>
       </c>
@@ -506,7 +507,7 @@
         <v>21786.29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44726.541666666664</v>
       </c>
@@ -514,7 +515,7 @@
         <v>21985.09</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44726.375</v>
       </c>
@@ -522,7 +523,7 @@
         <v>22464.16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44726.208333333336</v>
       </c>
@@ -530,7 +531,7 @@
         <v>22123.38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44726.041666666664</v>
       </c>
@@ -538,7 +539,7 @@
         <v>22575.75</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44725.875</v>
       </c>
@@ -546,7 +547,7 @@
         <v>21945.53</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44725.708333333336</v>
       </c>
@@ -554,7 +555,7 @@
         <v>21737.35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44725.541666666664</v>
       </c>
@@ -562,7 +563,7 @@
         <v>23236.77</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44725.375</v>
       </c>
@@ -570,7 +571,7 @@
         <v>23701.29</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44725.208333333336</v>
       </c>
@@ -578,7 +579,7 @@
         <v>23637.18</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44725.041666666664</v>
       </c>
@@ -586,7 +587,7 @@
         <v>24131.1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44724.875</v>
       </c>
@@ -594,7 +595,7 @@
         <v>25364.7</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44724.708333333336</v>
       </c>
@@ -602,7 +603,7 @@
         <v>26275.4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44724.541666666664</v>
       </c>
@@ -610,7 +611,7 @@
         <v>27368.77</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44724.375</v>
       </c>
@@ -618,7 +619,7 @@
         <v>27896.51</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44724.208333333336</v>
       </c>
@@ -626,7 +627,7 @@
         <v>27404.45</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44724.041666666664</v>
       </c>
@@ -634,7 +635,7 @@
         <v>27532.18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44723.875</v>
       </c>
@@ -642,7 +643,7 @@
         <v>27405.56</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44723.708333333336</v>
       </c>
@@ -650,7 +651,7 @@
         <v>28481.95</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44723.541666666664</v>
       </c>
@@ -658,7 +659,7 @@
         <v>28382.3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44723.375</v>
       </c>
@@ -666,7 +667,7 @@
         <v>28443.38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44723.208333333336</v>
       </c>
@@ -674,7 +675,7 @@
         <v>28449.49</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44723.041666666664</v>
       </c>
@@ -682,7 +683,7 @@
         <v>28978.43</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44722.875</v>
       </c>
@@ -690,7 +691,7 @@
         <v>29352.94</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44722.708333333336</v>
       </c>
@@ -698,7 +699,7 @@
         <v>29209.62</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44722.541666666664</v>
       </c>
@@ -706,7 +707,7 @@
         <v>29184</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44722.375</v>
       </c>
@@ -714,7 +715,7 @@
         <v>29018.79</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44722.208333333336</v>
       </c>
@@ -722,7 +723,7 @@
         <v>29612.73</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44722.041666666664</v>
       </c>
@@ -730,7 +731,7 @@
         <v>29994.98</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44721.875</v>
       </c>
@@ -738,7 +739,7 @@
         <v>30070.79</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44721.708333333336</v>
       </c>
@@ -746,7 +747,7 @@
         <v>29749.27</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44721.541666666664</v>
       </c>
@@ -754,7 +755,7 @@
         <v>30144.82</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44721.375</v>
       </c>
@@ -762,7 +763,7 @@
         <v>30328.79</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44721.208333333336</v>
       </c>
@@ -770,7 +771,7 @@
         <v>30086.52</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44721.041666666664</v>
       </c>
@@ -778,7 +779,7 @@
         <v>30489.06</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44720.875</v>
       </c>
@@ -786,7 +787,7 @@
         <v>30249</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44720.708333333336</v>
       </c>
@@ -794,7 +795,7 @@
         <v>30200.35</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44720.541666666664</v>
       </c>
@@ -802,7 +803,7 @@
         <v>30183.38</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44720.375</v>
       </c>
@@ -810,7 +811,7 @@
         <v>30307.63</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44720.208333333336</v>
       </c>
@@ -818,7 +819,7 @@
         <v>30122.06</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44720.041666666664</v>
       </c>
@@ -826,7 +827,7 @@
         <v>30482.7</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>44719.875</v>
       </c>
@@ -834,7 +835,7 @@
         <v>30227.37</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44719.708333333336</v>
       </c>
@@ -842,7 +843,7 @@
         <v>31057.79</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44719.541666666664</v>
       </c>
@@ -850,7 +851,7 @@
         <v>31333.360000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>44719.375</v>
       </c>
@@ -858,7 +859,7 @@
         <v>29892.65</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>44719.208333333336</v>
       </c>
@@ -866,7 +867,7 @@
         <v>29479.52</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>44719.041666666664</v>
       </c>
@@ -874,7 +875,7 @@
         <v>29632.75</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>44718.875</v>
       </c>
@@ -882,7 +883,7 @@
         <v>29516.75</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>44718.708333333336</v>
       </c>
@@ -890,7 +891,7 @@
         <v>30170.67</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>44718.541666666664</v>
       </c>
@@ -898,7 +899,7 @@
         <v>31447.96</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>44718.375</v>
       </c>
@@ -906,7 +907,7 @@
         <v>31285.71</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>44718.208333333336</v>
       </c>
@@ -914,7 +915,7 @@
         <v>31386.03</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>44718.041666666664</v>
       </c>
@@ -922,7 +923,7 @@
         <v>31444.639999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>44717.875</v>
       </c>
@@ -930,7 +931,7 @@
         <v>31193.3</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>44717.708333333336</v>
       </c>
@@ -938,7 +939,7 @@
         <v>30279.46</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>44717.541666666664</v>
       </c>
@@ -946,7 +947,7 @@
         <v>29929.71</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>44717.375</v>
       </c>
@@ -954,7 +955,7 @@
         <v>29846.21</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>44717.208333333336</v>
       </c>
@@ -962,7 +963,7 @@
         <v>29695.84</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>44717.041666666664</v>
       </c>
@@ -970,7 +971,7 @@
         <v>29670.53</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>44716.875</v>
       </c>
@@ -978,7 +979,7 @@
         <v>29704.71</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>44716.708333333336</v>
       </c>
@@ -986,7 +987,7 @@
         <v>29722.22</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>44716.541666666664</v>
       </c>
@@ -994,7 +995,7 @@
         <v>29731.37</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>44716.375</v>
       </c>
@@ -1002,7 +1003,7 @@
         <v>29733.21</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>44716.208333333336</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>29513.64</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>44716.041666666664</v>
       </c>
@@ -1018,7 +1019,7 @@
         <v>29725.93</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>44715.875</v>
       </c>
@@ -1026,7 +1027,7 @@
         <v>29688.880000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>44715.708333333336</v>
       </c>
@@ -1034,7 +1035,7 @@
         <v>29692.080000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>44715.541666666664</v>
       </c>
@@ -1042,7 +1043,7 @@
         <v>29639.51</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>44715.375</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>29516.15</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>44715.208333333336</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>29504.42</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>44715.041666666664</v>
       </c>
@@ -1066,7 +1067,7 @@
         <v>30421.51</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>44714.875</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>30403.17</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>44714.708333333336</v>
       </c>
@@ -1082,7 +1083,7 @@
         <v>30375.07</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>44714.541666666664</v>
       </c>
@@ -1090,7 +1091,7 @@
         <v>30237.91</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>44714.375</v>
       </c>
@@ -1098,7 +1099,7 @@
         <v>30272.61</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>44714.208333333336</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>30067.68</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>44714.041666666664</v>
       </c>
@@ -1114,7 +1115,7 @@
         <v>29921.65</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>44713.875</v>
       </c>
@@ -1122,7 +1123,7 @@
         <v>29790.959999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>44713.708333333336</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>29656.39</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>44713.541666666664</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v>29667.75</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>44713.375</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>30391.16</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>44713.208333333336</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>31716.720000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>44713.041666666664</v>
       </c>
@@ -1162,7 +1163,7 @@
         <v>31599.16</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>44712.875</v>
       </c>
@@ -1170,7 +1171,7 @@
         <v>31545</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>44712.708333333336</v>
       </c>
@@ -1178,7 +1179,7 @@
         <v>31919.06</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>44712.541666666664</v>
       </c>
@@ -1186,7 +1187,7 @@
         <v>31762.26</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>44712.375</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>32142.98</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>44712.208333333336</v>
       </c>
@@ -1202,7 +1203,7 @@
         <v>31592.7</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>44712.041666666664</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>31609.11</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>44711.875</v>
       </c>
@@ -1218,7 +1219,7 @@
         <v>31674.799999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>44711.708333333336</v>
       </c>
@@ -1226,7 +1227,7 @@
         <v>31556.29</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>44711.541666666664</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>31247.16</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>44711.375</v>
       </c>
@@ -1242,7 +1243,7 @@
         <v>30599.35</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>44711.208333333336</v>
       </c>
@@ -1250,7 +1251,7 @@
         <v>30512.52</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>44711.041666666664</v>
       </c>
@@ -1258,7 +1259,7 @@
         <v>30715.26</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>44710.875</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>30312.92</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>44710.708333333336</v>
       </c>
@@ -1274,7 +1275,7 @@
         <v>29296.79</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>44710.541666666664</v>
       </c>
@@ -1282,7 +1283,7 @@
         <v>29136.57</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>44710.375</v>
       </c>
@@ -1290,7 +1291,7 @@
         <v>29258.69</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>44710.208333333336</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>29351.599999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>44710.041666666664</v>
       </c>
@@ -1306,7 +1307,7 @@
         <v>29035.42</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>44709.875</v>
       </c>
@@ -1314,7 +1315,7 @@
         <v>28915.13</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>44709.708333333336</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>28980.97</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>44709.541666666664</v>
       </c>
@@ -1330,7 +1331,7 @@
         <v>28998.91</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>44709.375</v>
       </c>
@@ -1338,7 +1339,7 @@
         <v>28892.65</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>44709.208333333336</v>
       </c>
@@ -1346,7 +1347,7 @@
         <v>28959.93</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>44709.041666666664</v>
       </c>
@@ -1354,7 +1355,7 @@
         <v>28821.17</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>44708.875</v>
       </c>
@@ -1362,7 +1363,7 @@
         <v>28806.47</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>44708.708333333336</v>
       </c>
@@ -1370,7 +1371,7 @@
         <v>28770.42</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>44708.541666666664</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v>28740.47</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>44708.375</v>
       </c>
@@ -1386,7 +1387,7 @@
         <v>28700.83</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>44708.208333333336</v>
       </c>
@@ -1394,7 +1395,7 @@
         <v>29222.34</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>44708.041666666664</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v>28909.599999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>44707.875</v>
       </c>
@@ -1410,7 +1411,7 @@
         <v>28888.31</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>44707.708333333336</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v>29040.18</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>44707.541666666664</v>
       </c>
@@ -1426,7 +1427,7 @@
         <v>29450.240000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>44707.375</v>
       </c>
@@ -1434,7 +1435,7 @@
         <v>29558.42</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>44707.208333333336</v>
       </c>
@@ -1442,7 +1443,7 @@
         <v>28920.87</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>44707.041666666664</v>
       </c>
@@ -1450,7 +1451,7 @@
         <v>28977.21</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>44706.875</v>
       </c>
@@ -1458,7 +1459,7 @@
         <v>29738.41</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>44706.708333333336</v>
       </c>
@@ -1466,7 +1467,7 @@
         <v>29756.82</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>44706.541666666664</v>
       </c>
@@ -1474,7 +1475,7 @@
         <v>29764.07</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>44706.375</v>
       </c>
@@ -1482,7 +1483,7 @@
         <v>29530.92</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>44706.208333333336</v>
       </c>
@@ -1490,7 +1491,7 @@
         <v>29538.34</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>44706.041666666664</v>
       </c>
@@ -1498,7 +1499,7 @@
         <v>29791.33</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>44705.875</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>30066.92</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>44705.708333333336</v>
       </c>
@@ -1514,7 +1515,7 @@
         <v>29595.22</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>44705.541666666664</v>
       </c>
@@ -1522,7 +1523,7 @@
         <v>29431.3</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>44705.375</v>
       </c>
@@ -1530,7 +1531,7 @@
         <v>29297.38</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>44705.208333333336</v>
       </c>
@@ -1538,7 +1539,7 @@
         <v>29223.29</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>44705.041666666664</v>
       </c>
@@ -1546,7 +1547,7 @@
         <v>29124.73</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>44704.875</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>29326.04</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>44704.708333333336</v>
       </c>
@@ -1562,7 +1563,7 @@
         <v>29120.84</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>44704.541666666664</v>
       </c>
@@ -1570,7 +1571,7 @@
         <v>29290.66</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>44704.375</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>30221.71</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>44704.208333333336</v>
       </c>
@@ -1586,7 +1587,7 @@
         <v>30357.73</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>44704.041666666664</v>
       </c>
@@ -1594,7 +1595,7 @@
         <v>30322.95</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>44703.875</v>
       </c>
@@ -1602,7 +1603,7 @@
         <v>30099.85</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>44703.708333333336</v>
       </c>
@@ -1610,7 +1611,7 @@
         <v>30253.65</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>44703.541666666664</v>
       </c>
@@ -1618,7 +1619,7 @@
         <v>29903.81</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>44703.375</v>
       </c>
@@ -1626,7 +1627,7 @@
         <v>29900.58</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>44703.208333333336</v>
       </c>
@@ -1634,7 +1635,7 @@
         <v>30134.58</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>44703.041666666664</v>
       </c>
@@ -1642,7 +1643,7 @@
         <v>29518.35</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>44702.875</v>
       </c>
@@ -1650,7 +1651,7 @@
         <v>29249.98</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>44702.708333333336</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>29437.8</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>44702.541666666664</v>
       </c>
@@ -1666,7 +1667,7 @@
         <v>29375.96</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>44702.375</v>
       </c>
@@ -1674,7 +1675,7 @@
         <v>29526.720000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>44702.208333333336</v>
       </c>
@@ -1682,7 +1683,7 @@
         <v>29247.83</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>44702.041666666664</v>
       </c>
@@ -1690,7 +1691,7 @@
         <v>29335.360000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>44701.875</v>
       </c>
@@ -1698,7 +1699,7 @@
         <v>29222.63</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>44701.708333333336</v>
       </c>
@@ -1706,7 +1707,7 @@
         <v>29248.66</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>44701.541666666664</v>
       </c>
@@ -1714,7 +1715,7 @@
         <v>29123.13</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>44701.375</v>
       </c>
@@ -1722,7 +1723,7 @@
         <v>28868.97</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>44701.208333333336</v>
       </c>
@@ -1730,7 +1731,7 @@
         <v>30224.720000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>44701.041666666664</v>
       </c>
@@ -1738,7 +1739,7 @@
         <v>30159.01</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>44700.875</v>
       </c>
@@ -1746,7 +1747,7 @@
         <v>30062.77</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>44700.708333333336</v>
       </c>
@@ -1754,7 +1755,7 @@
         <v>30227.39</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>44700.541666666664</v>
       </c>
@@ -1762,7 +1763,7 @@
         <v>30203.29</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>44700.375</v>
       </c>
@@ -1770,7 +1771,7 @@
         <v>30111.74</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>44700.208333333336</v>
       </c>
@@ -1778,7 +1779,7 @@
         <v>29467.93</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>44700.041666666664</v>
       </c>
@@ -1786,7 +1787,7 @@
         <v>28937.29</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>44699.875</v>
       </c>
@@ -1794,7 +1795,7 @@
         <v>29058.48</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>44699.708333333336</v>
       </c>
@@ -1802,7 +1803,7 @@
         <v>28881.63</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>44699.541666666664</v>
       </c>
@@ -1810,7 +1811,7 @@
         <v>29192.85</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>44699.375</v>
       </c>
@@ -1818,7 +1819,7 @@
         <v>29180.5</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>44699.208333333336</v>
       </c>
@@ -1826,7 +1827,7 @@
         <v>29512.44</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>44699.041666666664</v>
       </c>
@@ -1834,7 +1835,7 @@
         <v>29846.44</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>44698.875</v>
       </c>
@@ -1842,7 +1843,7 @@
         <v>29801.25</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>44698.708333333336</v>
       </c>
@@ -1850,7 +1851,7 @@
         <v>30476.799999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>44698.541666666664</v>
       </c>
@@ -1858,7 +1859,7 @@
         <v>30080.44</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>44698.375</v>
       </c>
@@ -1866,7 +1867,7 @@
         <v>30111.97</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>44698.208333333336</v>
       </c>
@@ -1874,7 +1875,7 @@
         <v>30552</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>44698.041666666664</v>
       </c>
@@ -1882,7 +1883,7 @@
         <v>30541.99</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>44697.875</v>
       </c>
@@ -1890,7 +1891,7 @@
         <v>30340.13</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>44697.708333333336</v>
       </c>
@@ -1898,7 +1899,7 @@
         <v>30114.89</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>44697.541666666664</v>
       </c>
@@ -1906,7 +1907,7 @@
         <v>29880.959999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>44697.375</v>
       </c>
@@ -1914,7 +1915,7 @@
         <v>29270.880000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>44697.208333333336</v>
       </c>
@@ -1922,7 +1923,7 @@
         <v>29864.23</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>44697.041666666664</v>
       </c>
@@ -1930,7 +1931,7 @@
         <v>29761.58</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>44696.875</v>
       </c>
@@ -1938,7 +1939,7 @@
         <v>30300.44</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>44696.708333333336</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>31072.7</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>44696.541666666664</v>
       </c>
@@ -1954,7 +1955,7 @@
         <v>30990.54</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>44696.375</v>
       </c>
@@ -1962,7 +1963,7 @@
         <v>30175.95</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>44696.208333333336</v>
       </c>
@@ -1970,7 +1971,7 @@
         <v>30270.04</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>44696.041666666664</v>
       </c>
@@ -1978,7 +1979,7 @@
         <v>29544.3</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>44695.875</v>
       </c>
@@ -1986,7 +1987,7 @@
         <v>29572.17</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>44695.708333333336</v>
       </c>
@@ -1994,7 +1995,7 @@
         <v>29913.16</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>44695.541666666664</v>
       </c>
@@ -2002,7 +2003,7 @@
         <v>29353</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>44695.375</v>
       </c>
@@ -2010,7 +2011,7 @@
         <v>29301.1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>44695.208333333336</v>
       </c>
@@ -2018,7 +2019,7 @@
         <v>29027.85</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>44695.041666666664</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>29481.1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>44694.875</v>
       </c>
@@ -2034,7 +2035,7 @@
         <v>29307.19</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>44694.708333333336</v>
       </c>
@@ -2042,7 +2043,7 @@
         <v>29453.94</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>44694.541666666664</v>
       </c>
@@ -2050,7 +2051,7 @@
         <v>29788.55</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>44694.375</v>
       </c>
@@ -2058,7 +2059,7 @@
         <v>29911.71</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>44694.208333333336</v>
       </c>
@@ -2066,7 +2067,7 @@
         <v>30686.48</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>44694.041666666664</v>
       </c>
@@ -2074,7 +2075,7 @@
         <v>30267.919999999998</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>44693.875</v>
       </c>
@@ -2082,7 +2083,7 @@
         <v>30390.240000000002</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>44693.708333333336</v>
       </c>
@@ -2090,7 +2091,7 @@
         <v>29476.7</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>44693.541666666664</v>
       </c>
@@ -2098,7 +2099,7 @@
         <v>28560.71</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>44693.375</v>
       </c>
@@ -2106,7 +2107,7 @@
         <v>29603.69</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>44693.208333333336</v>
       </c>
@@ -2114,7 +2115,7 @@
         <v>28303.47</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>44693.041666666664</v>
       </c>
@@ -2122,7 +2123,7 @@
         <v>27646.68</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>44692.875</v>
       </c>
@@ -2130,7 +2131,7 @@
         <v>27655.27</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>44692.708333333336</v>
       </c>
@@ -2138,7 +2139,7 @@
         <v>29718.55</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>44692.541666666664</v>
       </c>
@@ -2146,7 +2147,7 @@
         <v>28299.25</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>44692.375</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>30287.25</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>44692.208333333336</v>
       </c>
@@ -2162,7 +2163,7 @@
         <v>29277.31</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>44692.041666666664</v>
       </c>
@@ -2170,7 +2171,7 @@
         <v>31406.32</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>44691.875</v>
       </c>
@@ -2178,7 +2179,7 @@
         <v>31209.99</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>44691.708333333336</v>
       </c>
@@ -2186,7 +2187,7 @@
         <v>31038.17</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>44691.541666666664</v>
       </c>
@@ -2194,7 +2195,7 @@
         <v>30944.33</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>44691.375</v>
       </c>
@@ -2202,7 +2203,7 @@
         <v>31216.37</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>44691.208333333336</v>
       </c>
@@ -2210,7 +2211,7 @@
         <v>32155.34</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>44691.041666666664</v>
       </c>
@@ -2218,7 +2219,7 @@
         <v>31745.5</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>44690.875</v>
       </c>
@@ -2226,7 +2227,7 @@
         <v>31223.22</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>44690.708333333336</v>
       </c>
@@ -2234,7 +2235,7 @@
         <v>30784.639999999999</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>44690.541666666664</v>
       </c>
@@ -2242,7 +2243,7 @@
         <v>31083</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>44690.375</v>
       </c>
@@ -2250,7 +2251,7 @@
         <v>31700.639999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>44690.208333333336</v>
       </c>
@@ -2258,7 +2259,7 @@
         <v>32848.93</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>44690.041666666664</v>
       </c>
@@ -2266,7 +2267,7 @@
         <v>33664.97</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>44689.875</v>
       </c>
@@ -2274,7 +2275,7 @@
         <v>33640.51</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>44689.708333333336</v>
       </c>
@@ -2282,7 +2283,7 @@
         <v>34133.5</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>44689.541666666664</v>
       </c>
@@ -2290,7 +2291,7 @@
         <v>34231.83</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>44689.375</v>
       </c>
@@ -2298,7 +2299,7 @@
         <v>34376.339999999997</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>44689.208333333336</v>
       </c>
@@ -2306,7 +2307,7 @@
         <v>34623.78</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>44689.041666666664</v>
       </c>
@@ -2314,7 +2315,7 @@
         <v>34660.92</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>44688.875</v>
       </c>
@@ -2322,7 +2323,7 @@
         <v>34400.870000000003</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>44688.708333333336</v>
       </c>
@@ -2330,7 +2331,7 @@
         <v>35089.58</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>44688.541666666664</v>
       </c>
@@ -2338,7 +2339,7 @@
         <v>35752.33</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>44688.375</v>
       </c>
@@ -2346,7 +2347,7 @@
         <v>35950.769999999997</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>44688.208333333336</v>
       </c>
@@ -2354,7 +2355,7 @@
         <v>36020.910000000003</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>44688.041666666664</v>
       </c>
@@ -2362,7 +2363,7 @@
         <v>36004.769999999997</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>44687.875</v>
       </c>
@@ -2370,7 +2371,7 @@
         <v>35731.25</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>44687.708333333336</v>
       </c>
@@ -2378,7 +2379,7 @@
         <v>35987.5</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>44687.541666666664</v>
       </c>
@@ -2386,7 +2387,7 @@
         <v>36066</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>44687.375</v>
       </c>
@@ -2394,7 +2395,7 @@
         <v>36215.279999999999</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>44687.208333333336</v>
       </c>
@@ -2402,7 +2403,7 @@
         <v>35823.870000000003</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>44687.041666666664</v>
       </c>
@@ -2410,7 +2411,7 @@
         <v>36205.629999999997</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>44686.875</v>
       </c>
@@ -2418,7 +2419,7 @@
         <v>36416.949999999997</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>44686.708333333336</v>
       </c>
@@ -2426,7 +2427,7 @@
         <v>36364.35</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>44686.541666666664</v>
       </c>
@@ -2434,7 +2435,7 @@
         <v>36416.19</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>44686.375</v>
       </c>
@@ -2442,7 +2443,7 @@
         <v>37040.18</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>44686.208333333336</v>
       </c>
@@ -2450,7 +2451,7 @@
         <v>39501.58</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>44686.041666666664</v>
       </c>
@@ -2458,7 +2459,7 @@
         <v>39468.800000000003</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>44685.875</v>
       </c>
@@ -2466,7 +2467,7 @@
         <v>39741.589999999997</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>44685.708333333336</v>
       </c>
@@ -2474,7 +2475,7 @@
         <v>39649.300000000003</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>44685.541666666664</v>
       </c>
@@ -2482,7 +2483,7 @@
         <v>39799.89</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>44685.375</v>
       </c>
@@ -2490,7 +2491,7 @@
         <v>39181.57</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>44685.208333333336</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>38963.949999999997</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>44685.041666666664</v>
       </c>
@@ -2506,7 +2507,7 @@
         <v>38964.03</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>44684.875</v>
       </c>
@@ -2514,7 +2515,7 @@
         <v>37984.839999999997</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>44684.708333333336</v>
       </c>
@@ -2522,7 +2523,7 @@
         <v>37893.86</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>44684.541666666664</v>
       </c>
@@ -2530,7 +2531,7 @@
         <v>37618.559999999998</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>44684.375</v>
       </c>
@@ -2538,7 +2539,7 @@
         <v>38139.46</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>44684.208333333336</v>
       </c>
@@ -2546,7 +2547,7 @@
         <v>38445.89</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>44684.041666666664</v>
       </c>
@@ -2554,7 +2555,7 @@
         <v>38532.379999999997</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>44683.875</v>
       </c>
@@ -2562,7 +2563,7 @@
         <v>38495.370000000003</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>44683.708333333336</v>
       </c>
@@ -2570,7 +2571,7 @@
         <v>38405.72</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>44683.541666666664</v>
       </c>
@@ -2578,7 +2579,7 @@
         <v>38320</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>44683.375</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>38555.15</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>44683.208333333336</v>
       </c>
@@ -2594,7 +2595,7 @@
         <v>38497.71</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>44683.041666666664</v>
       </c>
@@ -2602,7 +2603,7 @@
         <v>38924.21</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>44682.875</v>
       </c>
@@ -2610,7 +2611,7 @@
         <v>38979.43</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>44682.708333333336</v>
       </c>
@@ -2618,7 +2619,7 @@
         <v>38673.71</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>44682.541666666664</v>
       </c>
@@ -2626,7 +2627,7 @@
         <v>38215.53</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>44682.375</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>38504.86</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>44682.208333333336</v>
       </c>
@@ -2642,7 +2643,7 @@
         <v>37976.629999999997</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>44682.041666666664</v>
       </c>
@@ -2650,7 +2651,7 @@
         <v>38046.31</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>44681.875</v>
       </c>
@@ -2658,7 +2659,7 @@
         <v>37964.910000000003</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>44681.708333333336</v>
       </c>
@@ -2666,7 +2667,7 @@
         <v>37696.910000000003</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>44681.541666666664</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>38320.29</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>44681.375</v>
       </c>
@@ -2682,7 +2683,7 @@
         <v>38443.519999999997</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>44681.208333333336</v>
       </c>
@@ -2690,7 +2691,7 @@
         <v>38544.83</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>44681.041666666664</v>
       </c>
@@ -2698,7 +2699,7 @@
         <v>38603.64</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>44680.875</v>
       </c>
@@ -2706,7 +2707,7 @@
         <v>38562.199999999997</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>44680.708333333336</v>
       </c>
@@ -2714,7 +2715,7 @@
         <v>38641.199999999997</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>44680.541666666664</v>
       </c>
@@ -2722,7 +2723,7 @@
         <v>38554.43</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>44680.375</v>
       </c>
@@ -2730,7 +2731,7 @@
         <v>38517.33</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>44680.208333333336</v>
       </c>
@@ -2738,7 +2739,7 @@
         <v>38916.910000000003</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>44680.041666666664</v>
       </c>
@@ -2746,7 +2747,7 @@
         <v>39406.93</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>44679.875</v>
       </c>
@@ -2754,7 +2755,7 @@
         <v>39541.449999999997</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>44679.708333333336</v>
       </c>
@@ -2762,7 +2763,7 @@
         <v>39838.910000000003</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>44679.541666666664</v>
       </c>
@@ -2770,7 +2771,7 @@
         <v>39919.910000000003</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>44679.375</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>39909.06</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>44679.208333333336</v>
       </c>
@@ -2786,7 +2787,7 @@
         <v>39556.559999999998</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>44679.041666666664</v>
       </c>
@@ -2794,7 +2795,7 @@
         <v>39645.21</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>44678.875</v>
       </c>
@@ -2802,7 +2803,7 @@
         <v>39395.9</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>44678.708333333336</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>39397.1</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>44678.541666666664</v>
       </c>
@@ -2818,7 +2819,7 @@
         <v>39102.620000000003</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>44678.375</v>
       </c>
@@ -2826,7 +2827,7 @@
         <v>39198.39</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>44678.208333333336</v>
       </c>
@@ -2834,7 +2835,7 @@
         <v>38889.629999999997</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>44678.041666666664</v>
       </c>
@@ -2842,7 +2843,7 @@
         <v>38983.64</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>44677.875</v>
       </c>
@@ -2850,7 +2851,7 @@
         <v>38410.699999999997</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>44677.708333333336</v>
       </c>
@@ -2858,7 +2859,7 @@
         <v>38179.61</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>44677.541666666664</v>
       </c>
@@ -2866,7 +2867,7 @@
         <v>38104.86</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>44677.375</v>
       </c>
@@ -2874,7 +2875,7 @@
         <v>38677.660000000003</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>44677.208333333336</v>
       </c>
@@ -2882,7 +2883,7 @@
         <v>40291.410000000003</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>44677.041666666664</v>
       </c>
@@ -2890,7 +2891,7 @@
         <v>40519.15</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>44676.875</v>
       </c>
@@ -2898,7 +2899,7 @@
         <v>40569.33</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>44676.708333333336</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>40567.21</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>44676.541666666664</v>
       </c>
@@ -2914,7 +2915,7 @@
         <v>40142.07</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>44676.375</v>
       </c>
@@ -2922,7 +2923,7 @@
         <v>39481.19</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>44676.208333333336</v>
       </c>
@@ -2930,7 +2931,7 @@
         <v>38814.11</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>44676.041666666664</v>
       </c>
@@ -2938,7 +2939,7 @@
         <v>38421.58</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>44675.875</v>
       </c>
@@ -2946,7 +2947,7 @@
         <v>39160.44</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>44675.708333333336</v>
       </c>
@@ -2954,7 +2955,7 @@
         <v>38878.19</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>44675.541666666664</v>
       </c>
@@ -2962,7 +2963,7 @@
         <v>39508.199999999997</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>44675.375</v>
       </c>
@@ -2970,7 +2971,7 @@
         <v>39507.43</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>44675.208333333336</v>
       </c>
@@ -2978,7 +2979,7 @@
         <v>39594.589999999997</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>44675.041666666664</v>
       </c>
@@ -2986,7 +2987,7 @@
         <v>39739.39</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>44674.875</v>
       </c>
@@ -2994,7 +2995,7 @@
         <v>39716.410000000003</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>44674.708333333336</v>
       </c>
@@ -3002,7 +3003,7 @@
         <v>39574.660000000003</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>44674.541666666664</v>
       </c>
@@ -3010,7 +3011,7 @@
         <v>39794.01</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>44674.375</v>
       </c>
@@ -3018,7 +3019,7 @@
         <v>39854.769999999997</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>44674.208333333336</v>
       </c>
@@ -3026,7 +3027,7 @@
         <v>39718.42</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>44674.041666666664</v>
       </c>
@@ -3034,7 +3035,7 @@
         <v>39645.61</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>44673.875</v>
       </c>
@@ -3042,7 +3043,7 @@
         <v>39544.629999999997</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>44673.708333333336</v>
       </c>
@@ -3050,7 +3051,7 @@
         <v>39574.400000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>44673.541666666664</v>
       </c>
@@ -3058,7 +3059,7 @@
         <v>39605.11</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>44673.375</v>
       </c>
@@ -3066,7 +3067,7 @@
         <v>39384.230000000003</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>44673.208333333336</v>
       </c>
@@ -3074,7 +3075,7 @@
         <v>40413.879999999997</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>44673.041666666664</v>
       </c>
@@ -3082,7 +3083,7 @@
         <v>40410.050000000003</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>44672.875</v>
       </c>
@@ -3090,7 +3091,7 @@
         <v>40628.54</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>44672.708333333336</v>
       </c>
@@ -3098,7 +3099,7 @@
         <v>40435.230000000003</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>44672.541666666664</v>
       </c>
@@ -3106,7 +3107,7 @@
         <v>40633.86</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>44672.375</v>
       </c>
@@ -3114,7 +3115,7 @@
         <v>41833.5</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>44672.208333333336</v>
       </c>
@@ -3122,7 +3123,7 @@
         <v>42685.27</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>44672.041666666664</v>
       </c>
@@ -3130,7 +3131,7 @@
         <v>41942.550000000003</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>44671.875</v>
       </c>
@@ -3138,7 +3139,7 @@
         <v>41617.019999999997</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>44671.708333333336</v>
       </c>
@@ -3146,7 +3147,7 @@
         <v>41550.120000000003</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>44671.541666666664</v>
       </c>
@@ -3154,7 +3155,7 @@
         <v>41435.550000000003</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>44671.375</v>
       </c>
@@ -3162,7 +3163,7 @@
         <v>41389.51</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>44671.208333333336</v>
       </c>
@@ -3170,7 +3171,7 @@
         <v>42124.19</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>44671.041666666664</v>
       </c>
@@ -3178,7 +3179,7 @@
         <v>41496.269999999997</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>44670.875</v>
       </c>
@@ -3186,7 +3187,7 @@
         <v>41353.67</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>44670.708333333336</v>
       </c>
@@ -3194,7 +3195,7 @@
         <v>41312.33</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>44670.541666666664</v>
       </c>
@@ -3202,7 +3203,7 @@
         <v>41290.379999999997</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>44670.375</v>
       </c>
@@ -3210,7 +3211,7 @@
         <v>41355.379999999997</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>44670.208333333336</v>
       </c>
@@ -3218,7 +3219,7 @@
         <v>40978.019999999997</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>44670.041666666664</v>
       </c>
@@ -3226,7 +3227,7 @@
         <v>40738.699999999997</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>44669.875</v>
       </c>
@@ -3234,7 +3235,7 @@
         <v>40870.5</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>44669.708333333336</v>
       </c>
@@ -3242,7 +3243,7 @@
         <v>40893.019999999997</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>44669.541666666664</v>
       </c>
@@ -3250,7 +3251,7 @@
         <v>40666.620000000003</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>44669.375</v>
       </c>
@@ -3258,7 +3259,7 @@
         <v>39482.550000000003</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>44669.208333333336</v>
       </c>
@@ -3266,7 +3267,7 @@
         <v>39418.839999999997</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>44669.041666666664</v>
       </c>
@@ -3274,7 +3275,7 @@
         <v>38885.71</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>44668.875</v>
       </c>
@@ -3282,7 +3283,7 @@
         <v>38831.919999999998</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>44668.708333333336</v>
       </c>
@@ -3290,7 +3291,7 @@
         <v>39734.699999999997</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>44668.541666666664</v>
       </c>
@@ -3298,7 +3299,7 @@
         <v>40277.39</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>44668.375</v>
       </c>
@@ -3306,7 +3307,7 @@
         <v>40219.519999999997</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>44668.208333333336</v>
       </c>
@@ -3314,7 +3315,7 @@
         <v>40437.56</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>44668.041666666664</v>
       </c>
@@ -3322,7 +3323,7 @@
         <v>40403.160000000003</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>44667.875</v>
       </c>
@@ -3330,7 +3331,7 @@
         <v>40296.949999999997</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>44667.708333333336</v>
       </c>
@@ -3338,7 +3339,7 @@
         <v>40388.25</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>44667.541666666664</v>
       </c>
@@ -3346,7 +3347,7 @@
         <v>40321.43</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>44667.375</v>
       </c>
@@ -3354,7 +3355,7 @@
         <v>40217.800000000003</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>44667.208333333336</v>
       </c>
@@ -3362,7 +3363,7 @@
         <v>40458.699999999997</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>44667.041666666664</v>
       </c>
@@ -3370,7 +3371,7 @@
         <v>40378.160000000003</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>44666.875</v>
       </c>
@@ -3378,7 +3379,7 @@
         <v>40544.629999999997</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>44666.708333333336</v>
       </c>
@@ -3386,7 +3387,7 @@
         <v>40568.6</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>44666.541666666664</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>40401.629999999997</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>44666.375</v>
       </c>
@@ -3402,7 +3403,7 @@
         <v>40388.730000000003</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>44666.208333333336</v>
       </c>
@@ -3410,7 +3411,7 @@
         <v>40158.42</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>44666.041666666664</v>
       </c>
@@ -3418,7 +3419,7 @@
         <v>40158.86</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>44665.875</v>
       </c>
@@ -3426,7 +3427,7 @@
         <v>40106.620000000003</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>44665.708333333336</v>
       </c>
@@ -3434,7 +3435,7 @@
         <v>39856.94</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>44665.541666666664</v>
       </c>
@@ -3442,7 +3443,7 @@
         <v>39889.699999999997</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>44665.375</v>
       </c>
@@ -3450,7 +3451,7 @@
         <v>39947.68</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>44665.208333333336</v>
       </c>
@@ -3458,7 +3459,7 @@
         <v>41158.11</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>44665.041666666664</v>
       </c>
@@ -3466,7 +3467,7 @@
         <v>41180.129999999997</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>44664.875</v>
       </c>
@@ -3474,7 +3475,7 @@
         <v>41301.019999999997</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>44664.708333333336</v>
       </c>
@@ -3482,7 +3483,7 @@
         <v>41201.69</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>44664.541666666664</v>
       </c>
@@ -3490,7 +3491,7 @@
         <v>41241.47</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>44664.375</v>
       </c>
@@ -3498,7 +3499,7 @@
         <v>41032.230000000003</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>44664.208333333336</v>
       </c>
@@ -3506,7 +3507,7 @@
         <v>39709.89</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>44664.041666666664</v>
       </c>
@@ -3514,7 +3515,7 @@
         <v>40164.06</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>44663.875</v>
       </c>
@@ -3522,7 +3523,7 @@
         <v>40133.82</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>44663.708333333336</v>
       </c>
@@ -3530,7 +3531,7 @@
         <v>39943.449999999997</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>44663.541666666664</v>
       </c>
@@ -3538,7 +3539,7 @@
         <v>39528.300000000003</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>44663.375</v>
       </c>
@@ -3546,7 +3547,7 @@
         <v>40105.449999999997</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>44663.208333333336</v>
       </c>
@@ -3554,7 +3555,7 @@
         <v>40623.230000000003</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>44663.041666666664</v>
       </c>
@@ -3562,7 +3563,7 @@
         <v>40196.839999999997</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>44662.875</v>
       </c>
@@ -3570,7 +3571,7 @@
         <v>39929.019999999997</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>44662.708333333336</v>
       </c>
@@ -3578,7 +3579,7 @@
         <v>39562.97</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>44662.541666666664</v>
       </c>
@@ -3586,7 +3587,7 @@
         <v>39856.25</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>44662.375</v>
       </c>
@@ -3594,7 +3595,7 @@
         <v>40765.949999999997</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>44662.208333333336</v>
       </c>
@@ -3602,7 +3603,7 @@
         <v>41156.019999999997</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>44662.041666666664</v>
       </c>
@@ -3610,7 +3611,7 @@
         <v>42215.93</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>44661.875</v>
       </c>
@@ -3618,7 +3619,7 @@
         <v>42266.34</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>44661.708333333336</v>
       </c>
@@ -3626,7 +3627,7 @@
         <v>42311.77</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>44661.541666666664</v>
       </c>
@@ -3634,7 +3635,7 @@
         <v>43135.42</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>44661.375</v>
       </c>
@@ -3642,7 +3643,7 @@
         <v>42801.35</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>44661.208333333336</v>
       </c>
@@ -3650,7 +3651,7 @@
         <v>42600.15</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>44661.041666666664</v>
       </c>
@@ -3658,7 +3659,7 @@
         <v>42655.46</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>44660.875</v>
       </c>
@@ -3666,7 +3667,7 @@
         <v>42753.39</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>44660.708333333336</v>
       </c>
@@ -3674,7 +3675,7 @@
         <v>42643.95</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>44660.541666666664</v>
       </c>
@@ -3682,7 +3683,7 @@
         <v>42450.77</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>44660.375</v>
       </c>
@@ -3690,7 +3691,7 @@
         <v>42461.56</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>44660.208333333336</v>
       </c>
@@ -3698,7 +3699,7 @@
         <v>42512.6</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>44660.041666666664</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>42469.66</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>44659.875</v>
       </c>
@@ -3714,7 +3715,7 @@
         <v>42418.36</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>44659.708333333336</v>
       </c>
@@ -3722,7 +3723,7 @@
         <v>42443.83</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>44659.541666666664</v>
       </c>
@@ -3730,7 +3731,7 @@
         <v>42736.27</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>44659.375</v>
       </c>
@@ -3738,7 +3739,7 @@
         <v>43453.79</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>44659.208333333336</v>
       </c>
@@ -3746,7 +3747,7 @@
         <v>43163.519999999997</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>44659.041666666664</v>
       </c>
@@ -3754,7 +3755,7 @@
         <v>43743.13</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>44658.875</v>
       </c>
@@ -3762,7 +3763,7 @@
         <v>43546.87</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>44658.708333333336</v>
       </c>
@@ -3770,7 +3771,7 @@
         <v>43338.02</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>44658.541666666664</v>
       </c>
@@ -3778,7 +3779,7 @@
         <v>43577.84</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>44658.375</v>
       </c>
@@ -3786,7 +3787,7 @@
         <v>43497.73</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>44658.208333333336</v>
       </c>
@@ -3794,7 +3795,7 @@
         <v>43561.02</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>44658.041666666664</v>
       </c>
@@ -3802,7 +3803,7 @@
         <v>43529.31</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>44657.875</v>
       </c>
@@ -3810,7 +3811,7 @@
         <v>43404.56</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>44657.708333333336</v>
       </c>
@@ -3818,7 +3819,7 @@
         <v>42898.18</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>44657.541666666664</v>
       </c>
@@ -3826,7 +3827,7 @@
         <v>43897.41</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>44657.375</v>
       </c>
@@ -3834,7 +3835,7 @@
         <v>43775.28</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>44657.208333333336</v>
       </c>
@@ -3842,7 +3843,7 @@
         <v>44762.27</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>44657.041666666664</v>
       </c>
@@ -3850,7 +3851,7 @@
         <v>45379.6</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>44656.875</v>
       </c>
@@ -3858,7 +3859,7 @@
         <v>45347.18</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>44656.708333333336</v>
       </c>
@@ -3866,7 +3867,7 @@
         <v>45019.64</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>44656.541666666664</v>
       </c>
@@ -3874,7 +3875,7 @@
         <v>45700.49</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>44656.375</v>
       </c>
@@ -3882,7 +3883,7 @@
         <v>45926.32</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>44656.208333333336</v>
       </c>
@@ -3890,7 +3891,7 @@
         <v>46768.17</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>44656.041666666664</v>
       </c>
@@ -3898,7 +3899,7 @@
         <v>46670.27</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>44655.875</v>
       </c>
@@ -3906,7 +3907,7 @@
         <v>46777.14</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>44655.708333333336</v>
       </c>
@@ -3914,7 +3915,7 @@
         <v>46519.26</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>44655.541666666664</v>
       </c>
@@ -3922,7 +3923,7 @@
         <v>46301.86</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>44655.375</v>
       </c>
@@ -3930,7 +3931,7 @@
         <v>45710.74</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>44655.208333333336</v>
       </c>
@@ -3938,7 +3939,7 @@
         <v>46009.88</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>44655.041666666664</v>
       </c>
@@ -3946,7 +3947,7 @@
         <v>46153.73</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>44654.875</v>
       </c>
@@ -3954,7 +3955,7 @@
         <v>46090.81</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>44654.708333333336</v>
       </c>
@@ -3962,7 +3963,7 @@
         <v>45879.62</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>44654.541666666664</v>
       </c>
@@ -3970,7 +3971,7 @@
         <v>46392.05</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>44654.375</v>
       </c>
@@ -3978,7 +3979,7 @@
         <v>46309.87</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>44654.208333333336</v>
       </c>
@@ -3986,7 +3987,7 @@
         <v>46399.05</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>44654.041666666664</v>
       </c>
@@ -3994,7 +3995,7 @@
         <v>46303.14</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>44653.875</v>
       </c>
@@ -4002,7 +4003,7 @@
         <v>46385.19</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>44653.708333333336</v>
       </c>
@@ -4010,7 +4011,7 @@
         <v>46078.58</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>44653.541666666664</v>
       </c>
@@ -4018,7 +4019,7 @@
         <v>46195.3</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>44653.375</v>
       </c>
@@ -4026,7 +4027,7 @@
         <v>46329.68</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>44653.208333333336</v>
       </c>
@@ -4034,7 +4035,7 @@
         <v>46736.21</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>44653.041666666664</v>
       </c>
@@ -4042,7 +4043,7 @@
         <v>46567.86</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>44652.875</v>
       </c>
@@ -4050,7 +4051,7 @@
         <v>46554.21</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>44652.708333333336</v>
       </c>
@@ -4058,7 +4059,7 @@
         <v>46924.51</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>44652.541666666664</v>
       </c>
@@ -4066,7 +4067,7 @@
         <v>46168.41</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>44652.375</v>
       </c>
@@ -4074,7 +4075,7 @@
         <v>46052.77</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>44652.208333333336</v>
       </c>
@@ -4082,7 +4083,7 @@
         <v>45267.57</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>44652.041666666664</v>
       </c>
@@ -4090,7 +4091,7 @@
         <v>45159.02</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>44651.875</v>
       </c>
@@ -4098,7 +4099,7 @@
         <v>44667.519999999997</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>44651.708333333336</v>
       </c>
@@ -4106,7 +4107,7 @@
         <v>45551.16</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>44651.541666666664</v>
       </c>
@@ -4114,7 +4115,7 @@
         <v>45764.46</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>44651.375</v>
       </c>
@@ -4122,7 +4123,7 @@
         <v>45697.06</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>44651.208333333336</v>
       </c>
@@ -4130,7 +4131,7 @@
         <v>47418.82</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>44651.041666666664</v>
       </c>
@@ -4138,7 +4139,7 @@
         <v>47260.59</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>44650.875</v>
       </c>
@@ -4146,7 +4147,7 @@
         <v>47030.86</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>44650.708333333336</v>
       </c>
@@ -4154,7 +4155,7 @@
         <v>47168.88</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>44650.541666666664</v>
       </c>
@@ -4162,7 +4163,7 @@
         <v>47252.19</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>44650.375</v>
       </c>
@@ -4170,7 +4171,7 @@
         <v>47267.040000000001</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>44650.208333333336</v>
       </c>
@@ -4178,7 +4179,7 @@
         <v>47313.88</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>44650.041666666664</v>
       </c>
@@ -4186,7 +4187,7 @@
         <v>47450.33</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>44649.875</v>
       </c>
@@ -4194,7 +4195,7 @@
         <v>47257.19</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>44649.708333333336</v>
       </c>
@@ -4202,7 +4203,7 @@
         <v>47261.919999999998</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>44649.541666666664</v>
       </c>
@@ -4210,7 +4211,7 @@
         <v>47438.5</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>44649.375</v>
       </c>
@@ -4218,7 +4219,7 @@
         <v>47519.31</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>44649.208333333336</v>
       </c>
@@ -4226,7 +4227,7 @@
         <v>47869.2</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>44649.041666666664</v>
       </c>
@@ -4234,7 +4235,7 @@
         <v>47562.15</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>44648.875</v>
       </c>
@@ -4242,7 +4243,7 @@
         <v>47609.5</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>44648.708333333336</v>
       </c>
@@ -4250,7 +4251,7 @@
         <v>47411.87</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>44648.541666666664</v>
       </c>
@@ -4258,7 +4259,7 @@
         <v>47962.47</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>44648.375</v>
       </c>
@@ -4266,7 +4267,7 @@
         <v>47497.31</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>44648.208333333336</v>
       </c>
@@ -4274,7 +4275,7 @@
         <v>47229.8</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>44648.041666666664</v>
       </c>
@@ -4282,7 +4283,7 @@
         <v>47039.14</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>44647.875</v>
       </c>
@@ -4290,7 +4291,7 @@
         <v>47142.71</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>44647.708333333336</v>
       </c>
@@ -4298,7 +4299,7 @@
         <v>46932.14</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>44647.541666666664</v>
       </c>
@@ -4306,7 +4307,7 @@
         <v>46083.88</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>44647.375</v>
       </c>
@@ -4314,7 +4315,7 @@
         <v>44969.8</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>44647.208333333336</v>
       </c>
@@ -4322,7 +4323,7 @@
         <v>44458.75</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>44647.041666666664</v>
       </c>
@@ -4330,7 +4331,7 @@
         <v>44626.71</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>44646.875</v>
       </c>
@@ -4338,7 +4339,7 @@
         <v>44600.959999999999</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>44646.708333333336</v>
       </c>
@@ -4346,7 +4347,7 @@
         <v>44732.84</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>44646.541666666664</v>
       </c>
@@ -4354,7 +4355,7 @@
         <v>44594.239999999998</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>44646.375</v>
       </c>
@@ -4362,7 +4363,7 @@
         <v>44315.27</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>44646.208333333336</v>
       </c>
@@ -4370,7 +4371,7 @@
         <v>44375.7</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>44646.041666666664</v>
       </c>
@@ -4378,7 +4379,7 @@
         <v>44516.3</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>44645.875</v>
       </c>
@@ -4386,7 +4387,7 @@
         <v>44432.93</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>44645.708333333336</v>
       </c>
@@ -4394,7 +4395,7 @@
         <v>44180.5</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>44645.541666666664</v>
       </c>
@@ -4402,7 +4403,7 @@
         <v>44614.57</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>44645.375</v>
       </c>
@@ -4410,7 +4411,7 @@
         <v>44172.82</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>44645.208333333336</v>
       </c>
@@ -4418,7 +4419,7 @@
         <v>44864.160000000003</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>44645.041666666664</v>
       </c>
@@ -4426,7 +4427,7 @@
         <v>44030.239999999998</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>44644.875</v>
       </c>
@@ -4434,7 +4435,7 @@
         <v>44115.47</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>44644.708333333336</v>
       </c>
@@ -4442,7 +4443,7 @@
         <v>43994.89</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>44644.541666666664</v>
       </c>
@@ -4450,7 +4451,7 @@
         <v>43913.78</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>44644.375</v>
       </c>
@@ -4458,7 +4459,7 @@
         <v>44029.43</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>44644.208333333336</v>
       </c>
@@ -4466,7 +4467,7 @@
         <v>42831.18</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>44644.041666666664</v>
       </c>
@@ -4474,7 +4475,7 @@
         <v>43068.84</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>44643.875</v>
       </c>
@@ -4482,7 +4483,7 @@
         <v>42925.77</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>44643.708333333336</v>
       </c>
@@ -4490,7 +4491,7 @@
         <v>43054.16</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>44643.541666666664</v>
       </c>
@@ -4498,7 +4499,7 @@
         <v>42356.77</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>44643.375</v>
       </c>
@@ -4506,7 +4507,7 @@
         <v>42598.93</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>44643.208333333336</v>
       </c>
@@ -4514,7 +4515,7 @@
         <v>42374.74</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>44643.041666666664</v>
       </c>
@@ -4522,7 +4523,7 @@
         <v>42252.43</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>44642.875</v>
       </c>
@@ -4530,7 +4531,7 @@
         <v>41964.87</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>44642.708333333336</v>
       </c>
@@ -4538,7 +4539,7 @@
         <v>42413.1</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>44642.541666666664</v>
       </c>
@@ -4546,7 +4547,7 @@
         <v>42609.09</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>44642.375</v>
       </c>
@@ -4554,7 +4555,7 @@
         <v>42534.22</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>44642.208333333336</v>
       </c>
@@ -4562,7 +4563,7 @@
         <v>42972.38</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>44642.041666666664</v>
       </c>
@@ -4570,7 +4571,7 @@
         <v>42559.92</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>44641.875</v>
       </c>
@@ -4578,7 +4579,7 @@
         <v>43008.13</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>44641.708333333336</v>
       </c>
@@ -4586,7 +4587,7 @@
         <v>41155.51</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>44641.541666666664</v>
       </c>
@@ -4594,7 +4595,7 @@
         <v>41186.29</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>44641.375</v>
       </c>
@@ -4602,7 +4603,7 @@
         <v>40811.26</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>44641.208333333336</v>
       </c>
@@ -4610,7 +4611,7 @@
         <v>41243.550000000003</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>44641.041666666664</v>
       </c>
@@ -4618,7 +4619,7 @@
         <v>41186.39</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>44640.875</v>
       </c>
@@ -4626,7 +4627,7 @@
         <v>40889.160000000003</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>44640.708333333336</v>
       </c>
@@ -4634,7 +4635,7 @@
         <v>41438.870000000003</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>44640.541666666664</v>
       </c>
@@ -4642,7 +4643,7 @@
         <v>41316.39</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>44640.375</v>
       </c>
@@ -4650,7 +4651,7 @@
         <v>41317.96</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>44640.208333333336</v>
       </c>
@@ -4658,7 +4659,7 @@
         <v>41662.5</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>44640.041666666664</v>
       </c>
@@ -4666,7 +4667,7 @@
         <v>41887.53</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>44639.875</v>
       </c>
@@ -4674,7 +4675,7 @@
         <v>41878</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>44639.708333333336</v>
       </c>
@@ -4682,7 +4683,7 @@
         <v>42065.02</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>44639.541666666664</v>
       </c>
@@ -4690,7 +4691,7 @@
         <v>42256.1</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>44639.375</v>
       </c>
@@ -4698,7 +4699,7 @@
         <v>42003.23</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>44639.208333333336</v>
       </c>
@@ -4706,7 +4707,7 @@
         <v>41877.300000000003</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>44639.041666666664</v>
       </c>
@@ -4714,7 +4715,7 @@
         <v>41728.25</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>44638.875</v>
       </c>
@@ -4722,7 +4723,7 @@
         <v>41819.519999999997</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>44638.708333333336</v>
       </c>
@@ -4730,7 +4731,7 @@
         <v>41892.620000000003</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>44638.541666666664</v>
       </c>
@@ -4738,7 +4739,7 @@
         <v>41851.25</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>44638.375</v>
       </c>
@@ -4746,7 +4747,7 @@
         <v>41438.97</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>44638.208333333336</v>
       </c>
@@ -4754,7 +4755,7 @@
         <v>40463.879999999997</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>44638.041666666664</v>
       </c>
@@ -4762,7 +4763,7 @@
         <v>40621.65</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>44637.875</v>
       </c>
@@ -4770,7 +4771,7 @@
         <v>40643.99</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>44637.708333333336</v>
       </c>
@@ -4778,7 +4779,7 @@
         <v>40361.31</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>44637.541666666664</v>
       </c>
@@ -4786,7 +4787,7 @@
         <v>40718.129999999997</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>44637.375</v>
       </c>
@@ -4794,7 +4795,7 @@
         <v>40821.129999999997</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>44637.208333333336</v>
       </c>
@@ -4802,7 +4803,7 @@
         <v>41050.67</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>44637.041666666664</v>
       </c>
@@ -4810,7 +4811,7 @@
         <v>40841.300000000003</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>44636.875</v>
       </c>
@@ -4818,7 +4819,7 @@
         <v>41358.839999999997</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>44636.708333333336</v>
       </c>
@@ -4826,7 +4827,7 @@
         <v>41034.5</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>44636.541666666664</v>
       </c>
@@ -4834,7 +4835,7 @@
         <v>41245.5</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>44636.375</v>
       </c>
@@ -4842,7 +4843,7 @@
         <v>40317.82</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>44636.208333333336</v>
       </c>
@@ -4850,7 +4851,7 @@
         <v>40388.5</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>44636.041666666664</v>
       </c>
@@ -4858,7 +4859,7 @@
         <v>40334.61</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>44635.875</v>
       </c>
@@ -4866,7 +4867,7 @@
         <v>39124.46</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>44635.708333333336</v>
       </c>
@@ -4874,7 +4875,7 @@
         <v>39184.76</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>44635.541666666664</v>
       </c>
@@ -4882,7 +4883,7 @@
         <v>39403.660000000003</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>44635.375</v>
       </c>
@@ -4890,7 +4891,7 @@
         <v>39182.160000000003</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>44635.208333333336</v>
       </c>
@@ -4898,7 +4899,7 @@
         <v>38872.74</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>44635.041666666664</v>
       </c>
@@ -4906,7 +4907,7 @@
         <v>38382.879999999997</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>44634.875</v>
       </c>
@@ -4914,7 +4915,7 @@
         <v>38794.92</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>44634.708333333336</v>
       </c>
@@ -4922,7 +4923,7 @@
         <v>39579.9</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>44634.541666666664</v>
       </c>
@@ -4930,7 +4931,7 @@
         <v>38714.870000000003</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>44634.375</v>
       </c>
@@ -4938,7 +4939,7 @@
         <v>38845.79</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>44634.208333333336</v>
       </c>
@@ -4946,7 +4947,7 @@
         <v>38842.699999999997</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>44634.041666666664</v>
       </c>
@@ -4954,7 +4955,7 @@
         <v>39083</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>44633.875</v>
       </c>
@@ -4962,7 +4963,7 @@
         <v>38534.769999999997</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>44633.708333333336</v>
       </c>
@@ -4970,7 +4971,7 @@
         <v>37842.629999999997</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>44633.541666666664</v>
       </c>
@@ -4978,7 +4979,7 @@
         <v>38677.480000000003</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>44633.375</v>
       </c>
@@ -4986,7 +4987,7 @@
         <v>38941.019999999997</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>44633.208333333336</v>
       </c>
@@ -4994,7 +4995,7 @@
         <v>38511.5</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>44633</v>
       </c>
@@ -5002,7 +5003,7 @@
         <v>39074.949999999997</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>44632.833333333336</v>
       </c>
@@ -5010,7 +5011,7 @@
         <v>39130.18</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>44632.666666666664</v>
       </c>
@@ -5018,7 +5019,7 @@
         <v>39008.83</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>44632.541666666664</v>
       </c>
@@ -5026,7 +5027,7 @@
         <v>39136.959999999999</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>44632.375</v>
       </c>
@@ -5034,7 +5035,7 @@
         <v>39109.410000000003</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>44632.208333333336</v>
       </c>
@@ -5042,7 +5043,7 @@
         <v>39078.39</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>44632.041666666664</v>
       </c>
@@ -5050,7 +5051,7 @@
         <v>39177.040000000001</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>44631.875</v>
       </c>
@@ -5058,7 +5059,7 @@
         <v>39175.24</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>44631.708333333336</v>
       </c>
@@ -5066,7 +5067,7 @@
         <v>39201.660000000003</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>44631.541666666664</v>
       </c>
@@ -5074,7 +5075,7 @@
         <v>38859.839999999997</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>44631.375</v>
       </c>
@@ -5082,7 +5083,7 @@
         <v>38816.120000000003</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>44631.208333333336</v>
       </c>
@@ -5090,7 +5091,7 @@
         <v>39277.08</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>44631.041666666664</v>
       </c>
@@ -5098,7 +5099,7 @@
         <v>39038.99</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>44630.875</v>
       </c>
@@ -5106,7 +5107,7 @@
         <v>38777.9</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>44630.708333333336</v>
       </c>
@@ -5114,7 +5115,7 @@
         <v>38675.49</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>44630.541666666664</v>
       </c>
@@ -5122,7 +5123,7 @@
         <v>39318.94</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>44630.375</v>
       </c>
@@ -5130,7 +5131,7 @@
         <v>39179.42</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>44630.208333333336</v>
       </c>
@@ -5138,7 +5139,7 @@
         <v>38887.160000000003</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>44630.041666666664</v>
       </c>
@@ -5146,7 +5147,7 @@
         <v>39167.61</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>44629.875</v>
       </c>
@@ -5154,7 +5155,7 @@
         <v>39228</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>44629.708333333336</v>
       </c>
@@ -5162,7 +5163,7 @@
         <v>40933.279999999999</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>44629.541666666664</v>
       </c>
@@ -5170,7 +5171,7 @@
         <v>41908.43</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>44629.375</v>
       </c>
@@ -5178,7 +5179,7 @@
         <v>42337.62</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>44629.208333333336</v>
       </c>
@@ -5186,7 +5187,7 @@
         <v>41878.629999999997</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>44629.041666666664</v>
       </c>
@@ -5194,7 +5195,7 @@
         <v>42030.6</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>44628.875</v>
       </c>
@@ -5202,7 +5203,7 @@
         <v>41517.33</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>44628.708333333336</v>
       </c>
@@ -5210,7 +5211,7 @@
         <v>39231.199999999997</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>44628.541666666664</v>
       </c>
@@ -5218,7 +5219,7 @@
         <v>38537.68</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>44628.375</v>
       </c>
@@ -5226,7 +5227,7 @@
         <v>39093.03</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>44628.208333333336</v>
       </c>
@@ -5234,7 +5235,7 @@
         <v>38879.85</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>44628.041666666664</v>
       </c>
@@ -5242,7 +5243,7 @@
         <v>38988.870000000003</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>44627.875</v>
       </c>
@@ -5250,7 +5251,7 @@
         <v>38357.660000000003</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>44627.708333333336</v>
       </c>
@@ -5258,7 +5259,7 @@
         <v>38288.61</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>44627.541666666664</v>
       </c>
@@ -5266,7 +5267,7 @@
         <v>37855.75</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>44627.375</v>
       </c>
@@ -5274,7 +5275,7 @@
         <v>38609.47</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>44627.208333333336</v>
       </c>
@@ -5282,7 +5283,7 @@
         <v>39040.94</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>44627.041666666664</v>
       </c>
@@ -5290,7 +5291,7 @@
         <v>38155.980000000003</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>44626.875</v>
       </c>
@@ -5298,7 +5299,7 @@
         <v>38034.629999999997</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>44626.708333333336</v>
       </c>
@@ -5306,7 +5307,7 @@
         <v>38324.019999999997</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>44626.541666666664</v>
       </c>
@@ -5314,7 +5315,7 @@
         <v>38992.699999999997</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>44626.375</v>
       </c>
@@ -5322,7 +5323,7 @@
         <v>39012.32</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>44626.208333333336</v>
       </c>
@@ -5330,7 +5331,7 @@
         <v>38896.79</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>44626.041666666664</v>
       </c>
@@ -5338,7 +5339,7 @@
         <v>38694.5</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>44625.875</v>
       </c>
@@ -5346,7 +5347,7 @@
         <v>39506.18</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>44625.708333333336</v>
       </c>
@@ -5354,7 +5355,7 @@
         <v>39452.26</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>44625.541666666664</v>
       </c>
@@ -5362,7 +5363,7 @@
         <v>39388.18</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>44625.375</v>
       </c>
@@ -5370,7 +5371,7 @@
         <v>39453.949999999997</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>44625.208333333336</v>
       </c>
@@ -5378,7 +5379,7 @@
         <v>39019.519999999997</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>44625.041666666664</v>
       </c>
@@ -5386,7 +5387,7 @@
         <v>39054.57</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>44624.875</v>
       </c>
@@ -5394,7 +5395,7 @@
         <v>39017.86</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>44624.708333333336</v>
       </c>
@@ -5402,7 +5403,7 @@
         <v>38994.76</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>44624.541666666664</v>
       </c>
@@ -5410,7 +5411,7 @@
         <v>39401.129999999997</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>44624.375</v>
       </c>
@@ -5418,7 +5419,7 @@
         <v>40847.32</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>44624.208333333336</v>
       </c>
@@ -5426,7 +5427,7 @@
         <v>41302.379999999997</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>44624.041666666664</v>
       </c>
@@ -5434,7 +5435,7 @@
         <v>41536.050000000003</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>44623.875</v>
       </c>
@@ -5442,7 +5443,7 @@
         <v>41377.74</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>44623.708333333336</v>
       </c>
@@ -5450,7 +5451,7 @@
         <v>41526.68</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>44623.541666666664</v>
       </c>
@@ -5458,7 +5459,7 @@
         <v>42112.18</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>44623.375</v>
       </c>
@@ -5466,7 +5467,7 @@
         <v>42401.69</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>44623.208333333336</v>
       </c>
@@ -5474,7 +5475,7 @@
         <v>43997.8</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>44623.041666666664</v>
       </c>
@@ -5482,7 +5483,7 @@
         <v>43172.2</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>44622.875</v>
       </c>
@@ -5490,7 +5491,7 @@
         <v>43339.82</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>44622.708333333336</v>
       </c>
@@ -5498,7 +5499,7 @@
         <v>43843.34</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>44622.541666666664</v>
       </c>
@@ -5506,7 +5507,7 @@
         <v>43949.71</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>44622.375</v>
       </c>
@@ -5514,7 +5515,7 @@
         <v>43772.22</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>44622.208333333336</v>
       </c>
@@ -5522,7 +5523,7 @@
         <v>43545.96</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>44622.041666666664</v>
       </c>
@@ -5530,7 +5531,7 @@
         <v>43934.89</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>44621.875</v>
       </c>
@@ -5538,7 +5539,7 @@
         <v>44303.5</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>44621.708333333336</v>
       </c>
@@ -5546,7 +5547,7 @@
         <v>44038.95</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>44621.541666666664</v>
       </c>
@@ -5554,7 +5555,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>44621.375</v>
       </c>
@@ -5562,7 +5563,7 @@
         <v>43660.66</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>44621.208333333336</v>
       </c>
@@ -5570,7 +5571,7 @@
         <v>44445.85</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>44621.041666666664</v>
       </c>
@@ -5578,7 +5579,7 @@
         <v>43263.360000000001</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>44620.875</v>
       </c>
@@ -5586,7 +5587,7 @@
         <v>43225.93</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>44620.708333333336</v>
       </c>
@@ -5594,7 +5595,7 @@
         <v>43279.199999999997</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>44620.541666666664</v>
       </c>
@@ -5602,7 +5603,7 @@
         <v>41647.43</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>44620.375</v>
       </c>
@@ -5610,7 +5611,7 @@
         <v>41434.11</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>44620.208333333336</v>
       </c>
@@ -5618,7 +5619,7 @@
         <v>38016.07</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>44620.041666666664</v>
       </c>
@@ -5626,7 +5627,7 @@
         <v>38129.550000000003</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>44619.875</v>
       </c>
@@ -5634,7 +5635,7 @@
         <v>37842.86</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>44619.708333333336</v>
       </c>
@@ -5642,7 +5643,7 @@
         <v>37995.17</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>44619.541666666664</v>
       </c>
@@ -5650,7 +5651,7 @@
         <v>37440.85</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>44619.375</v>
       </c>
@@ -5658,7 +5659,7 @@
         <v>38983.58</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>44619.208333333336</v>
       </c>
@@ -5666,7 +5667,7 @@
         <v>39080.36</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>44619.041666666664</v>
       </c>
@@ -5674,7 +5675,7 @@
         <v>39107.46</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>44618.875</v>
       </c>
@@ -5682,7 +5683,7 @@
         <v>38617.269999999997</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>44618.708333333336</v>
       </c>
@@ -5690,7 +5691,7 @@
         <v>38258.07</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>44618.541666666664</v>
       </c>
@@ -5698,7 +5699,7 @@
         <v>39481.03</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>44618.375</v>
       </c>
@@ -5706,7 +5707,7 @@
         <v>39279.68</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>44618.208333333336</v>
       </c>
@@ -5714,7 +5715,7 @@
         <v>39110.15</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>44618.041666666664</v>
       </c>
@@ -5722,7 +5723,7 @@
         <v>38816.92</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>44617.875</v>
       </c>
@@ -5730,7 +5731,7 @@
         <v>39032.21</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>44617.708333333336</v>
       </c>
@@ -5738,7 +5739,7 @@
         <v>39739.75</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>44617.541666666664</v>
       </c>
@@ -5746,7 +5747,7 @@
         <v>39007.879999999997</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>44617.375</v>
       </c>
@@ -5754,7 +5755,7 @@
         <v>38997.85</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>44617.208333333336</v>
       </c>
@@ -5762,7 +5763,7 @@
         <v>39384.720000000001</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>44617.041666666664</v>
       </c>
@@ -5770,7 +5771,7 @@
         <v>38692.129999999997</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>44616.875</v>
       </c>
@@ -5778,7 +5779,7 @@
         <v>38461.980000000003</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>44616.708333333336</v>
       </c>
@@ -5786,7 +5787,7 @@
         <v>38579.68</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>44616.541666666664</v>
       </c>
@@ -5794,7 +5795,7 @@
         <v>38402.85</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>44616.375</v>
       </c>
@@ -5802,7 +5803,7 @@
         <v>35864.49</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>44616.208333333336</v>
       </c>
@@ -5810,7 +5811,7 @@
         <v>35508.69</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>44616.041666666664</v>
       </c>
@@ -5818,7 +5819,7 @@
         <v>35353.019999999997</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>44615.875</v>
       </c>
@@ -5826,7 +5827,7 @@
         <v>34679.57</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>44615.708333333336</v>
       </c>
@@ -5834,7 +5835,7 @@
         <v>36978.949999999997</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>44615.541666666664</v>
       </c>
@@ -5842,7 +5843,7 @@
         <v>37572.82</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>44615.375</v>
       </c>
@@ -5850,7 +5851,7 @@
         <v>38100.94</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>44615.208333333336</v>
       </c>
@@ -5858,7 +5859,7 @@
         <v>38996.81</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>44615.041666666664</v>
       </c>
@@ -5866,7 +5867,7 @@
         <v>38898.81</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>44614.875</v>
       </c>
@@ -5874,7 +5875,7 @@
         <v>38016.18</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>44614.708333333336</v>
       </c>
@@ -5882,7 +5883,7 @@
         <v>38087.89</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>44614.541666666664</v>
       </c>
@@ -5890,7 +5891,7 @@
         <v>37903.550000000003</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>44614.375</v>
       </c>
@@ -5898,7 +5899,7 @@
         <v>37657.9</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>44614.208333333336</v>
       </c>
@@ -5906,7 +5907,7 @@
         <v>37858.58</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>44614.041666666664</v>
       </c>
@@ -5914,7 +5915,7 @@
         <v>37151.71</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>44613.875</v>
       </c>
@@ -5922,7 +5923,7 @@
         <v>36758.230000000003</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>44613.708333333336</v>
       </c>
@@ -5930,7 +5931,7 @@
         <v>37265.74</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>44613.541666666664</v>
       </c>
@@ -5938,7 +5939,7 @@
         <v>37251.07</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <v>44613.375</v>
       </c>
@@ -5946,7 +5947,7 @@
         <v>38543.519999999997</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>44613.208333333336</v>
       </c>
@@ -5954,7 +5955,7 @@
         <v>37583.85</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <v>44613.041666666664</v>
       </c>
@@ -5962,7 +5963,7 @@
         <v>38938.58</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
         <v>44612.875</v>
       </c>
@@ -5970,7 +5971,7 @@
         <v>39251.96</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
         <v>44612.708333333336</v>
       </c>
@@ -5978,7 +5979,7 @@
         <v>39158.559999999998</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <v>44612.541666666664</v>
       </c>
@@ -5986,7 +5987,7 @@
         <v>38248.910000000003</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <v>44612.375</v>
       </c>
@@ -5994,7 +5995,7 @@
         <v>38286.769999999997</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
         <v>44612.208333333336</v>
       </c>
@@ -6002,7 +6003,7 @@
         <v>38226.74</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <v>44612.041666666664</v>
       </c>
@@ -6010,7 +6011,7 @@
         <v>38203.31</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
         <v>44611.875</v>
       </c>
@@ -6018,7 +6019,7 @@
         <v>39375.75</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
         <v>44611.708333333336</v>
       </c>
@@ -6026,7 +6027,7 @@
         <v>40012.31</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
         <v>44611.541666666664</v>
       </c>
@@ -6034,7 +6035,7 @@
         <v>39940.910000000003</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
         <v>44611.375</v>
       </c>
@@ -6042,7 +6043,7 @@
         <v>40179.46</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
         <v>44611.208333333336</v>
       </c>
@@ -6050,7 +6051,7 @@
         <v>40043.78</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <v>44611.041666666664</v>
       </c>
@@ -6058,7 +6059,7 @@
         <v>39952.25</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
         <v>44610.875</v>
       </c>
@@ -6066,7 +6067,7 @@
         <v>40267.57</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
         <v>44610.708333333336</v>
       </c>
@@ -6074,7 +6075,7 @@
         <v>40183.230000000003</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
         <v>44610.541666666664</v>
       </c>
@@ -6082,7 +6083,7 @@
         <v>40000.879999999997</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
         <v>44610.375</v>
       </c>
@@ -6090,7 +6091,7 @@
         <v>40050.910000000003</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
         <v>44610.208333333336</v>
       </c>
@@ -6098,7 +6099,7 @@
         <v>40412.379999999997</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
         <v>44610.041666666664</v>
       </c>
@@ -6106,7 +6107,7 @@
         <v>40906.339999999997</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
         <v>44609.875</v>
       </c>
@@ -6114,7 +6115,7 @@
         <v>40658.28</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
         <v>44609.708333333336</v>
       </c>
@@ -6122,7 +6123,7 @@
         <v>40817.519999999997</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
         <v>44609.541666666664</v>
       </c>
@@ -6130,7 +6131,7 @@
         <v>40698.14</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
         <v>44609.375</v>
       </c>
@@ -6138,7 +6139,7 @@
         <v>41775.269999999997</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
         <v>44609.208333333336</v>
       </c>
@@ -6146,7 +6147,7 @@
         <v>42275.72</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
         <v>44609.041666666664</v>
       </c>
@@ -6154,7 +6155,7 @@
         <v>43244.85</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
         <v>44608.875</v>
       </c>
@@ -6162,7 +6163,7 @@
         <v>43643.97</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
         <v>44608.708333333336</v>
       </c>
@@ -6170,7 +6171,7 @@
         <v>44043.24</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
         <v>44608.541666666664</v>
       </c>
@@ -6178,7 +6179,7 @@
         <v>44076.95</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
         <v>44608.375</v>
       </c>
@@ -6186,7 +6187,7 @@
         <v>43601.7</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
         <v>44608.208333333336</v>
       </c>
@@ -6194,7 +6195,7 @@
         <v>43652.81</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
         <v>44608.041666666664</v>
       </c>
@@ -6202,7 +6203,7 @@
         <v>44041.54</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
         <v>44607.875</v>
       </c>
@@ -6210,7 +6211,7 @@
         <v>44088.800000000003</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
         <v>44607.708333333336</v>
       </c>
@@ -6218,7 +6219,7 @@
         <v>44015.24</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
         <v>44607.541666666664</v>
       </c>
@@ -6226,7 +6227,7 @@
         <v>44012.82</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
         <v>44607.375</v>
       </c>
@@ -6234,7 +6235,7 @@
         <v>43945.9</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
         <v>44607.208333333336</v>
       </c>
@@ -6242,7 +6243,7 @@
         <v>44276.7</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
         <v>44607.041666666664</v>
       </c>
@@ -6250,7 +6251,7 @@
         <v>44077.84</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
         <v>44606.875</v>
       </c>
@@ -6258,7 +6259,7 @@
         <v>43599.95</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
         <v>44606.708333333336</v>
       </c>
@@ -6266,7 +6267,7 @@
         <v>43481.22</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
         <v>44606.541666666664</v>
       </c>
@@ -6274,7 +6275,7 @@
         <v>42269.73</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
         <v>44606.375</v>
       </c>
@@ -6282,7 +6283,7 @@
         <v>42594.25</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
         <v>44606.208333333336</v>
       </c>
@@ -6290,7 +6291,7 @@
         <v>42513.01</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
         <v>44606.041666666664</v>
       </c>
@@ -6298,7 +6299,7 @@
         <v>42082.06</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
         <v>44605.875</v>
       </c>
@@ -6306,7 +6307,7 @@
         <v>41794.97</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
         <v>44605.708333333336</v>
       </c>
@@ -6314,7 +6315,7 @@
         <v>41687.589999999997</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
         <v>44605.541666666664</v>
       </c>
@@ -6322,7 +6323,7 @@
         <v>42254.11</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
         <v>44605.375</v>
       </c>
@@ -6330,7 +6331,7 @@
         <v>42294.15</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
         <v>44605.208333333336</v>
       </c>
@@ -6338,7 +6339,7 @@
         <v>42526.23</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
         <v>44605.041666666664</v>
       </c>
@@ -6346,7 +6347,7 @@
         <v>42342.15</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
         <v>44604.875</v>
       </c>
@@ -6354,7 +6355,7 @@
         <v>42298.09</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
         <v>44604.708333333336</v>
       </c>
@@ -6362,7 +6363,7 @@
         <v>42256.78</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
         <v>44604.541666666664</v>
       </c>
@@ -6370,7 +6371,7 @@
         <v>41912.879999999997</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
         <v>44604.375</v>
       </c>
@@ -6378,7 +6379,7 @@
         <v>42755.95</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
         <v>44604.208333333336</v>
       </c>
@@ -6386,7 +6387,7 @@
         <v>42129.8</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
         <v>44604.041666666664</v>
       </c>
@@ -6394,7 +6395,7 @@
         <v>42419.519999999997</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
         <v>44603.875</v>
       </c>
@@ -6402,7 +6403,7 @@
         <v>42298.98</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
         <v>44603.708333333336</v>
       </c>
@@ -6410,7 +6411,7 @@
         <v>42469.35</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
         <v>44603.541666666664</v>
       </c>
@@ -6418,7 +6419,7 @@
         <v>42579.28</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
         <v>44603.375</v>
       </c>
@@ -6426,7 +6427,7 @@
         <v>43445.07</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
         <v>44603.208333333336</v>
       </c>
@@ -6434,7 +6435,7 @@
         <v>43815.05</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
         <v>44603.041666666664</v>
       </c>
@@ -6442,7 +6443,7 @@
         <v>43527.38</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
         <v>44602.875</v>
       </c>
@@ -6450,7 +6451,7 @@
         <v>42874.16</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
         <v>44602.708333333336</v>
       </c>
@@ -6458,7 +6459,7 @@
         <v>43195.37</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
         <v>44602.541666666664</v>
       </c>
@@ -6466,7 +6467,7 @@
         <v>43735.8</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
         <v>44602.375</v>
       </c>
@@ -6474,7 +6475,7 @@
         <v>45360.75</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
         <v>44602.208333333336</v>
       </c>
@@ -6482,7 +6483,7 @@
         <v>43675.6</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
         <v>44602.041666666664</v>
       </c>
@@ -6490,7 +6491,7 @@
         <v>44441.46</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
         <v>44601.875</v>
       </c>
@@ -6498,7 +6499,7 @@
         <v>43924.09</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
         <v>44601.708333333336</v>
       </c>
@@ -6506,7 +6507,7 @@
         <v>44301.7</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
         <v>44601.541666666664</v>
       </c>
@@ -6514,7 +6515,7 @@
         <v>44496.28</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
         <v>44601.375</v>
       </c>
@@ -6522,7 +6523,7 @@
         <v>44104.28</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
         <v>44601.208333333336</v>
       </c>
@@ -6530,7 +6531,7 @@
         <v>43981.919999999998</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772" s="1">
         <v>44601.041666666664</v>
       </c>
@@ -6538,7 +6539,7 @@
         <v>43418.54</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773" s="1">
         <v>44600.875</v>
       </c>
@@ -6546,7 +6547,7 @@
         <v>43623.71</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
         <v>44600.708333333336</v>
       </c>
@@ -6554,7 +6555,7 @@
         <v>43898.65</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
         <v>44600.541666666664</v>
       </c>
@@ -6562,7 +6563,7 @@
         <v>44251.64</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A776" s="1">
         <v>44600.375</v>
       </c>
@@ -6570,7 +6571,7 @@
         <v>42992.44</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777" s="1">
         <v>44600.208333333336</v>
       </c>
@@ -6578,7 +6579,7 @@
         <v>43661.72</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
         <v>44600.041666666664</v>
       </c>
@@ -6586,7 +6587,7 @@
         <v>43885.279999999999</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779" s="1">
         <v>44599.875</v>
       </c>
@@ -6594,7 +6595,7 @@
         <v>44916.5</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
         <v>44599.708333333336</v>
       </c>
@@ -6602,7 +6603,7 @@
         <v>44079.95</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
         <v>44599.541666666664</v>
       </c>
@@ -6610,7 +6611,7 @@
         <v>44053.54</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A782" s="1">
         <v>44599.375</v>
       </c>
@@ -6618,7 +6619,7 @@
         <v>44242.58</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A783" s="1">
         <v>44599.208333333336</v>
       </c>
@@ -6626,7 +6627,7 @@
         <v>42841.440000000002</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A784" s="1">
         <v>44599.041666666664</v>
       </c>
@@ -6634,7 +6635,7 @@
         <v>42452.57</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785" s="1">
         <v>44598.875</v>
       </c>
@@ -6642,7 +6643,7 @@
         <v>42836</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A786" s="1">
         <v>44598.708333333336</v>
       </c>
@@ -6650,7 +6651,7 @@
         <v>42137.68</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A787" s="1">
         <v>44598.541666666664</v>
       </c>
@@ -6658,7 +6659,7 @@
         <v>41688.269999999997</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A788" s="1">
         <v>44598.375</v>
       </c>
@@ -6666,7 +6667,7 @@
         <v>41678.97</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A789" s="1">
         <v>44598.208333333336</v>
       </c>
@@ -6674,7 +6675,7 @@
         <v>41724.980000000003</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A790" s="1">
         <v>44598.041666666664</v>
       </c>
@@ -6682,7 +6683,7 @@
         <v>41674.29</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A791" s="1">
         <v>44597.875</v>
       </c>
@@ -6690,7 +6691,7 @@
         <v>41608.76</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A792" s="1">
         <v>44597.708333333336</v>
       </c>
@@ -6698,7 +6699,7 @@
         <v>41635.15</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A793" s="1">
         <v>44597.541666666664</v>
       </c>
@@ -6706,7 +6707,7 @@
         <v>41710.85</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A794" s="1">
         <v>44597.375</v>
       </c>
@@ -6714,7 +6715,7 @@
         <v>41605.019999999997</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A795" s="1">
         <v>44597.208333333336</v>
       </c>
@@ -6722,7 +6723,7 @@
         <v>41546.18</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A796" s="1">
         <v>44597.041666666664</v>
       </c>
@@ -6730,7 +6731,7 @@
         <v>41576.300000000003</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A797" s="1">
         <v>44596.875</v>
       </c>
@@ -6738,7 +6739,7 @@
         <v>41555.96</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A798" s="1">
         <v>44596.708333333336</v>
       </c>
@@ -6746,7 +6747,7 @@
         <v>41304.86</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A799" s="1">
         <v>44596.541666666664</v>
       </c>
@@ -6754,7 +6755,7 @@
         <v>40634.339999999997</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A800" s="1">
         <v>44596.375</v>
       </c>
@@ -6762,7 +6763,7 @@
         <v>40554.75</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A801" s="1">
         <v>44596.208333333336</v>
       </c>
@@ -6770,7 +6771,7 @@
         <v>37445.410000000003</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A802" s="1">
         <v>44596.041666666664</v>
       </c>
@@ -6778,7 +6779,7 @@
         <v>38043.18</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A803" s="1">
         <v>44595.875</v>
       </c>
@@ -6786,7 +6787,7 @@
         <v>37576.89</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A804" s="1">
         <v>44595.708333333336</v>
       </c>
@@ -6794,7 +6795,7 @@
         <v>37201.370000000003</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A805" s="1">
         <v>44595.541666666664</v>
       </c>
@@ -6802,7 +6803,7 @@
         <v>36959.120000000003</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A806" s="1">
         <v>44595.375</v>
       </c>
@@ -6810,7 +6811,7 @@
         <v>36851.589999999997</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A807" s="1">
         <v>44595.208333333336</v>
       </c>
@@ -6818,7 +6819,7 @@
         <v>36596.89</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A808" s="1">
         <v>44595.041666666664</v>
       </c>
@@ -6826,7 +6827,7 @@
         <v>36642.050000000003</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A809" s="1">
         <v>44594.875</v>
       </c>
@@ -6834,7 +6835,7 @@
         <v>37025.61</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A810" s="1">
         <v>44594.708333333336</v>
       </c>
@@ -6842,7 +6843,7 @@
         <v>36878.519999999997</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A811" s="1">
         <v>44594.541666666664</v>
       </c>
@@ -6850,7 +6851,7 @@
         <v>36886.449999999997</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A812" s="1">
         <v>44594.375</v>
       </c>
@@ -6858,7 +6859,7 @@
         <v>37485.050000000003</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A813" s="1">
         <v>44594.208333333336</v>
       </c>
@@ -6866,7 +6867,7 @@
         <v>38376.19</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A814" s="1">
         <v>44594.041666666664</v>
       </c>
@@ -6874,7 +6875,7 @@
         <v>38555.660000000003</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A815" s="1">
         <v>44593.875</v>
       </c>
@@ -6882,7 +6883,7 @@
         <v>38426.97</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A816" s="1">
         <v>44593.708333333336</v>
       </c>
@@ -6890,7 +6891,7 @@
         <v>38462.129999999997</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A817" s="1">
         <v>44593.541666666664</v>
       </c>
@@ -6898,7 +6899,7 @@
         <v>38734.949999999997</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A818" s="1">
         <v>44593.375</v>
       </c>
@@ -6906,7 +6907,7 @@
         <v>38895.949999999997</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A819" s="1">
         <v>44593.208333333336</v>
       </c>
@@ -6914,7 +6915,7 @@
         <v>38900.980000000003</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A820" s="1">
         <v>44593.041666666664</v>
       </c>
@@ -6922,7 +6923,7 @@
         <v>38272.03</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A821" s="1">
         <v>44592.875</v>
       </c>
@@ -6930,7 +6931,7 @@
         <v>38472.04</v>
       </c>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A822" s="1">
         <v>44592.708333333336</v>
       </c>
@@ -6938,7 +6939,7 @@
         <v>38262.5</v>
       </c>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A823" s="1">
         <v>44592.541666666664</v>
       </c>
@@ -6946,7 +6947,7 @@
         <v>38437.949999999997</v>
       </c>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A824" s="1">
         <v>44592.375</v>
       </c>
@@ -6954,7 +6955,7 @@
         <v>38510.35</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A825" s="1">
         <v>44592.208333333336</v>
       </c>
@@ -6962,7 +6963,7 @@
         <v>37282.660000000003</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A826" s="1">
         <v>44592.041666666664</v>
       </c>
@@ -6970,7 +6971,7 @@
         <v>37229.86</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A827" s="1">
         <v>44591.875</v>
       </c>
@@ -6978,7 +6979,7 @@
         <v>37024.86</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A828" s="1">
         <v>44591.708333333336</v>
       </c>
@@ -6986,7 +6987,7 @@
         <v>36846.199999999997</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A829" s="1">
         <v>44591.541666666664</v>
       </c>
@@ -6994,7 +6995,7 @@
         <v>37743.019999999997</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A830" s="1">
         <v>44591.375</v>
       </c>
@@ -7002,7 +7003,7 @@
         <v>38012.720000000001</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A831" s="1">
         <v>44591.208333333336</v>
       </c>
@@ -7010,7 +7011,7 @@
         <v>37995</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A832" s="1">
         <v>44591.041666666664</v>
       </c>
@@ -7018,7 +7019,7 @@
         <v>37911.71</v>
       </c>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A833" s="1">
         <v>44590.875</v>
       </c>
@@ -7026,7 +7027,7 @@
         <v>38158.449999999997</v>
       </c>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A834" s="1">
         <v>44590.708333333336</v>
       </c>
@@ -7034,7 +7035,7 @@
         <v>37950.47</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A835" s="1">
         <v>44590.541666666664</v>
       </c>
@@ -7042,7 +7043,7 @@
         <v>38438.129999999997</v>
       </c>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A836" s="1">
         <v>44590.375</v>
       </c>
@@ -7050,7 +7051,7 @@
         <v>37672.75</v>
       </c>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A837" s="1">
         <v>44590.208333333336</v>
       </c>
@@ -7058,7 +7059,7 @@
         <v>38180.76</v>
       </c>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A838" s="1">
         <v>44590.041666666664</v>
       </c>
@@ -7066,7 +7067,7 @@
         <v>37734.75</v>
       </c>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A839" s="1">
         <v>44589.875</v>
       </c>
@@ -7074,7 +7075,7 @@
         <v>37681.25</v>
       </c>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A840" s="1">
         <v>44589.708333333336</v>
       </c>
@@ -7082,7 +7083,7 @@
         <v>37566.559999999998</v>
       </c>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A841" s="1">
         <v>44589.541666666664</v>
       </c>
@@ -7090,7 +7091,7 @@
         <v>37809.68</v>
       </c>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A842" s="1">
         <v>44589.375</v>
       </c>
@@ -7098,7 +7099,7 @@
         <v>36855.910000000003</v>
       </c>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A843" s="1">
         <v>44589.208333333336</v>
       </c>
@@ -7106,7 +7107,7 @@
         <v>36930</v>
       </c>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A844" s="1">
         <v>44589.041666666664</v>
       </c>
@@ -7114,7 +7115,7 @@
         <v>36500.74</v>
       </c>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A845" s="1">
         <v>44588.875</v>
       </c>
@@ -7122,7 +7123,7 @@
         <v>37230.629999999997</v>
       </c>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A846" s="1">
         <v>44588.708333333336</v>
       </c>
@@ -7130,7 +7131,7 @@
         <v>36899.879999999997</v>
       </c>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A847" s="1">
         <v>44588.541666666664</v>
       </c>
@@ -7138,7 +7139,7 @@
         <v>36219.699999999997</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A848" s="1">
         <v>44588.375</v>
       </c>
@@ -7146,7 +7147,7 @@
         <v>36288.36</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A849" s="1">
         <v>44588.208333333336</v>
       </c>
@@ -7154,7 +7155,7 @@
         <v>36857.730000000003</v>
       </c>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A850" s="1">
         <v>44588.041666666664</v>
       </c>
@@ -7162,7 +7163,7 @@
         <v>36555.410000000003</v>
       </c>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A851" s="1">
         <v>44587.875</v>
       </c>
@@ -7170,7 +7171,7 @@
         <v>36004.089999999997</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A852" s="1">
         <v>44587.708333333336</v>
       </c>
@@ -7178,7 +7179,7 @@
         <v>35885.19</v>
       </c>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A853" s="1">
         <v>44587.541666666664</v>
       </c>
@@ -7186,7 +7187,7 @@
         <v>36369.53</v>
       </c>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A854" s="1">
         <v>44587.375</v>
       </c>
@@ -7194,7 +7195,7 @@
         <v>38081.89</v>
       </c>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A855" s="1">
         <v>44587.208333333336</v>
       </c>
@@ -7202,7 +7203,7 @@
         <v>38231.32</v>
       </c>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A856" s="1">
         <v>44587.041666666664</v>
       </c>
@@ -7210,7 +7211,7 @@
         <v>37679.14</v>
       </c>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A857" s="1">
         <v>44586.875</v>
       </c>
@@ -7218,7 +7219,7 @@
         <v>37631.919999999998</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A858" s="1">
         <v>44586.708333333336</v>
       </c>
@@ -7226,7 +7227,7 @@
         <v>36874.129999999997</v>
       </c>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A859" s="1">
         <v>44586.541666666664</v>
       </c>
@@ -7234,7 +7235,7 @@
         <v>36626.06</v>
       </c>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A860" s="1">
         <v>44586.375</v>
       </c>
@@ -7242,7 +7243,7 @@
         <v>37303.39</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A861" s="1">
         <v>44586.208333333336</v>
       </c>
@@ -7250,7 +7251,7 @@
         <v>36532.75</v>
       </c>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A862" s="1">
         <v>44586.041666666664</v>
       </c>
@@ -7258,7 +7259,7 @@
         <v>36444.589999999997</v>
       </c>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A863" s="1">
         <v>44585.875</v>
       </c>
@@ -7266,7 +7267,7 @@
         <v>36074.69</v>
       </c>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A864" s="1">
         <v>44585.708333333336</v>
       </c>
@@ -7274,7 +7275,7 @@
         <v>36138.19</v>
       </c>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A865" s="1">
         <v>44585.541666666664</v>
       </c>
@@ -7282,7 +7283,7 @@
         <v>36839.75</v>
       </c>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A866" s="1">
         <v>44585.375</v>
       </c>
@@ -7290,7 +7291,7 @@
         <v>35396.230000000003</v>
       </c>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A867" s="1">
         <v>44585.208333333336</v>
       </c>
@@ -7298,7 +7299,7 @@
         <v>33343.47</v>
       </c>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A868" s="1">
         <v>44585.041666666664</v>
       </c>
@@ -7306,7 +7307,7 @@
         <v>34516.44</v>
       </c>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A869" s="1">
         <v>44584.875</v>
       </c>
@@ -7314,7 +7315,7 @@
         <v>35198.769999999997</v>
       </c>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A870" s="1">
         <v>44584.708333333336</v>
       </c>
@@ -7322,7 +7323,7 @@
         <v>35675.410000000003</v>
       </c>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A871" s="1">
         <v>44584.541666666664</v>
       </c>
@@ -7330,7 +7331,7 @@
         <v>35378.339999999997</v>
       </c>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A872" s="1">
         <v>44584.375</v>
       </c>
@@ -7338,7 +7339,7 @@
         <v>35355.75</v>
       </c>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A873" s="1">
         <v>44584.208333333336</v>
       </c>
@@ -7346,7 +7347,7 @@
         <v>36008.79</v>
       </c>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A874" s="1">
         <v>44584.041666666664</v>
       </c>
@@ -7354,7 +7355,7 @@
         <v>35904.269999999997</v>
       </c>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A875" s="1">
         <v>44583.875</v>
       </c>
@@ -7362,7 +7363,7 @@
         <v>35475.120000000003</v>
       </c>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A876" s="1">
         <v>44583.708333333336</v>
       </c>
@@ -7370,7 +7371,7 @@
         <v>35337.300000000003</v>
       </c>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A877" s="1">
         <v>44583.541666666664</v>
       </c>
@@ -7378,7 +7379,7 @@
         <v>35448.85</v>
       </c>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A878" s="1">
         <v>44583.375</v>
       </c>
@@ -7386,7 +7387,7 @@
         <v>34612.019999999997</v>
       </c>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A879" s="1">
         <v>44583.208333333336</v>
       </c>
@@ -7394,7 +7395,7 @@
         <v>35608.660000000003</v>
       </c>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A880" s="1">
         <v>44583.041666666664</v>
       </c>
@@ -7402,7 +7403,7 @@
         <v>34829.870000000003</v>
       </c>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A881" s="1">
         <v>44582.875</v>
       </c>
@@ -7410,7 +7411,7 @@
         <v>35740.39</v>
       </c>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A882" s="1">
         <v>44582.708333333336</v>
       </c>
@@ -7418,7 +7419,7 @@
         <v>36501.83</v>
       </c>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A883" s="1">
         <v>44582.541666666664</v>
       </c>
@@ -7426,7 +7427,7 @@
         <v>36681.86</v>
       </c>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A884" s="1">
         <v>44582.375</v>
       </c>
@@ -7434,7 +7435,7 @@
         <v>38377.78</v>
       </c>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A885" s="1">
         <v>44582.208333333336</v>
       </c>
@@ -7442,7 +7443,7 @@
         <v>38488.58</v>
       </c>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A886" s="1">
         <v>44582.041666666664</v>
       </c>
@@ -7450,7 +7451,7 @@
         <v>38978.19</v>
       </c>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A887" s="1">
         <v>44581.875</v>
       </c>
@@ -7458,7 +7459,7 @@
         <v>38922.980000000003</v>
       </c>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A888" s="1">
         <v>44581.708333333336</v>
       </c>
@@ -7466,7 +7467,7 @@
         <v>39759.050000000003</v>
       </c>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A889" s="1">
         <v>44581.541666666664</v>
       </c>
@@ -7474,7 +7475,7 @@
         <v>41384.800000000003</v>
       </c>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A890" s="1">
         <v>44581.375</v>
       </c>
@@ -7482,7 +7483,7 @@
         <v>43032.46</v>
       </c>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A891" s="1">
         <v>44581.208333333336</v>
       </c>
@@ -7490,7 +7491,7 @@
         <v>42394.82</v>
       </c>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A892" s="1">
         <v>44581.041666666664</v>
       </c>
@@ -7498,7 +7499,7 @@
         <v>42068.51</v>
       </c>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A893" s="1">
         <v>44580.875</v>
       </c>
@@ -7506,7 +7507,7 @@
         <v>41904.94</v>
       </c>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A894" s="1">
         <v>44580.708333333336</v>
       </c>
@@ -7514,7 +7515,7 @@
         <v>41782.44</v>
       </c>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A895" s="1">
         <v>44580.541666666664</v>
       </c>
@@ -7522,7 +7523,7 @@
         <v>41741.699999999997</v>
       </c>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A896" s="1">
         <v>44580.375</v>
       </c>
@@ -7530,7 +7531,7 @@
         <v>42181.45</v>
       </c>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A897" s="1">
         <v>44580.208333333336</v>
       </c>
@@ -7538,7 +7539,7 @@
         <v>42213.42</v>
       </c>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A898" s="1">
         <v>44580.041666666664</v>
       </c>
@@ -7546,7 +7547,7 @@
         <v>41597.050000000003</v>
       </c>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A899" s="1">
         <v>44579.875</v>
       </c>
@@ -7554,7 +7555,7 @@
         <v>41782.01</v>
       </c>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A900" s="1">
         <v>44579.708333333336</v>
       </c>
@@ -7562,7 +7563,7 @@
         <v>42441.63</v>
       </c>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A901" s="1">
         <v>44579.541666666664</v>
       </c>
@@ -7570,7 +7571,7 @@
         <v>42394.77</v>
       </c>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A902" s="1">
         <v>44579.375</v>
       </c>
@@ -7578,7 +7579,7 @@
         <v>41505.19</v>
       </c>
     </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A903" s="1">
         <v>44579.208333333336</v>
       </c>
@@ -7586,7 +7587,7 @@
         <v>41669.99</v>
       </c>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A904" s="1">
         <v>44579.041666666664</v>
       </c>
@@ -7594,7 +7595,7 @@
         <v>41922.21</v>
       </c>
     </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A905" s="1">
         <v>44578.875</v>
       </c>
@@ -7602,7 +7603,7 @@
         <v>42129.82</v>
       </c>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A906" s="1">
         <v>44578.708333333336</v>
       </c>
@@ -7610,7 +7611,7 @@
         <v>42283.91</v>
       </c>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A907" s="1">
         <v>44578.541666666664</v>
       </c>
@@ -7618,7 +7619,7 @@
         <v>41745.35</v>
       </c>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A908" s="1">
         <v>44578.375</v>
       </c>
@@ -7626,7 +7627,7 @@
         <v>42127.38</v>
       </c>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A909" s="1">
         <v>44578.208333333336</v>
       </c>
@@ -7634,7 +7635,7 @@
         <v>42665.9</v>
       </c>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A910" s="1">
         <v>44578.041666666664</v>
       </c>
@@ -7642,7 +7643,7 @@
         <v>42873.63</v>
       </c>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A911" s="1">
         <v>44577.875</v>
       </c>
@@ -7650,7 +7651,7 @@
         <v>42676.78</v>
       </c>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A912" s="1">
         <v>44577.708333333336</v>
       </c>
@@ -7658,7 +7659,7 @@
         <v>42914.28</v>
       </c>
     </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A913" s="1">
         <v>44577.541666666664</v>
       </c>
@@ -7666,7 +7667,7 @@
         <v>43000.14</v>
       </c>
     </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A914" s="1">
         <v>44577.375</v>
       </c>
@@ -7674,7 +7675,7 @@
         <v>43097.38</v>
       </c>
     </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A915" s="1">
         <v>44577.208333333336</v>
       </c>
@@ -7682,7 +7683,7 @@
         <v>43156.43</v>
       </c>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A916" s="1">
         <v>44577.041666666664</v>
       </c>
@@ -7690,7 +7691,7 @@
         <v>43105.35</v>
       </c>
     </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A917" s="1">
         <v>44576.875</v>
       </c>
@@ -7698,7 +7699,7 @@
         <v>42998.63</v>
       </c>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A918" s="1">
         <v>44576.708333333336</v>
       </c>
@@ -7706,7 +7707,7 @@
         <v>43032.63</v>
       </c>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A919" s="1">
         <v>44576.541666666664</v>
       </c>
@@ -7714,7 +7715,7 @@
         <v>43351.72</v>
       </c>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A920" s="1">
         <v>44576.375</v>
       </c>
@@ -7722,7 +7723,7 @@
         <v>43403.75</v>
       </c>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A921" s="1">
         <v>44576.208333333336</v>
       </c>
@@ -7730,7 +7731,7 @@
         <v>42935.73</v>
       </c>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A922" s="1">
         <v>44576.041666666664</v>
       </c>
@@ -7738,7 +7739,7 @@
         <v>43085.55</v>
       </c>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A923" s="1">
         <v>44575.875</v>
       </c>
@@ -7746,7 +7747,7 @@
         <v>43012.32</v>
       </c>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A924" s="1">
         <v>44575.708333333336</v>
       </c>
@@ -7754,7 +7755,7 @@
         <v>42997.95</v>
       </c>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A925" s="1">
         <v>44575.541666666664</v>
       </c>
@@ -7762,7 +7763,7 @@
         <v>43323.3</v>
       </c>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A926" s="1">
         <v>44575.375</v>
       </c>
@@ -7770,7 +7771,7 @@
         <v>42922.5</v>
       </c>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A927" s="1">
         <v>44575.208333333336</v>
       </c>
@@ -7778,7 +7779,7 @@
         <v>42176.45</v>
       </c>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A928" s="1">
         <v>44575.041666666664</v>
       </c>
@@ -7786,7 +7787,7 @@
         <v>42576.68</v>
       </c>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A929" s="1">
         <v>44574.875</v>
       </c>
@@ -7794,7 +7795,7 @@
         <v>42916.35</v>
       </c>
     </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A930" s="1">
         <v>44574.708333333336</v>
       </c>
@@ -7802,7 +7803,7 @@
         <v>42607.86</v>
       </c>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A931" s="1">
         <v>44574.541666666664</v>
       </c>
@@ -7810,7 +7811,7 @@
         <v>42837.06</v>
       </c>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A932" s="1">
         <v>44574.375</v>
       </c>
@@ -7818,7 +7819,7 @@
         <v>42835.43</v>
       </c>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A933" s="1">
         <v>44574.208333333336</v>
       </c>
@@ -7826,7 +7827,7 @@
         <v>43945.54</v>
       </c>
     </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A934" s="1">
         <v>44574.041666666664</v>
       </c>
@@ -7834,7 +7835,7 @@
         <v>43898.1</v>
       </c>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A935" s="1">
         <v>44573.875</v>
       </c>
@@ -7842,7 +7843,7 @@
         <v>43699.21</v>
       </c>
     </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A936" s="1">
         <v>44573.708333333336</v>
       </c>
@@ -7850,7 +7851,7 @@
         <v>43565.38</v>
       </c>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A937" s="1">
         <v>44573.541666666664</v>
       </c>
@@ -7858,7 +7859,7 @@
         <v>43817.8</v>
       </c>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A938" s="1">
         <v>44573.375</v>
       </c>
@@ -7866,7 +7867,7 @@
         <v>43867.02</v>
       </c>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A939" s="1">
         <v>44573.208333333336</v>
       </c>
@@ -7874,7 +7875,7 @@
         <v>43955.51</v>
       </c>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A940" s="1">
         <v>44573.041666666664</v>
       </c>
@@ -7882,7 +7883,7 @@
         <v>42813.32</v>
       </c>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A941" s="1">
         <v>44572.875</v>
       </c>
@@ -7890,7 +7891,7 @@
         <v>42722.94</v>
       </c>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A942" s="1">
         <v>44572.708333333336</v>
       </c>
@@ -7898,7 +7899,7 @@
         <v>42647.93</v>
       </c>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A943" s="1">
         <v>44572.541666666664</v>
       </c>
@@ -7906,7 +7907,7 @@
         <v>42686.21</v>
       </c>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A944" s="1">
         <v>44572.375</v>
       </c>
@@ -7914,7 +7915,7 @@
         <v>42569.120000000003</v>
       </c>
     </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A945" s="1">
         <v>44572.208333333336</v>
       </c>
@@ -7922,7 +7923,7 @@
         <v>41710.5</v>
       </c>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A946" s="1">
         <v>44572.041666666664</v>
       </c>
@@ -7930,7 +7931,7 @@
         <v>41993.23</v>
       </c>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A947" s="1">
         <v>44571.875</v>
       </c>
@@ -7938,7 +7939,7 @@
         <v>42119.32</v>
       </c>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A948" s="1">
         <v>44571.708333333336</v>
       </c>
@@ -7946,7 +7947,7 @@
         <v>41937.230000000003</v>
       </c>
     </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A949" s="1">
         <v>44571.541666666664</v>
       </c>
@@ -7954,7 +7955,7 @@
         <v>41701.589999999997</v>
       </c>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A950" s="1">
         <v>44571.375</v>
       </c>
@@ -7962,7 +7963,7 @@
         <v>41204.160000000003</v>
       </c>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A951" s="1">
         <v>44571.208333333336</v>
       </c>
@@ -7970,7 +7971,7 @@
         <v>40772</v>
       </c>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A952" s="1">
         <v>44571.041666666664</v>
       </c>
@@ -7978,7 +7979,7 @@
         <v>41814.9</v>
       </c>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A953" s="1">
         <v>44570.875</v>
       </c>
@@ -7986,7 +7987,7 @@
         <v>42036.93</v>
       </c>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A954" s="1">
         <v>44570.708333333336</v>
       </c>
@@ -7994,7 +7995,7 @@
         <v>41822.07</v>
       </c>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A955" s="1">
         <v>44570.541666666664</v>
       </c>
@@ -8002,7 +8003,7 @@
         <v>42337.35</v>
       </c>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A956" s="1">
         <v>44570.375</v>
       </c>
@@ -8010,7 +8011,7 @@
         <v>42101.43</v>
       </c>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A957" s="1">
         <v>44570.208333333336</v>
       </c>
@@ -8018,7 +8019,7 @@
         <v>41482.99</v>
       </c>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A958" s="1">
         <v>44570.041666666664</v>
       </c>
@@ -8026,7 +8027,7 @@
         <v>41515.300000000003</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A959" s="1">
         <v>44569.875</v>
       </c>
@@ -8034,7 +8035,7 @@
         <v>41765.79</v>
       </c>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A960" s="1">
         <v>44569.708333333336</v>
       </c>
@@ -8042,7 +8043,7 @@
         <v>41819.980000000003</v>
       </c>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A961" s="1">
         <v>44569.541666666664</v>
       </c>
@@ -8050,7 +8051,7 @@
         <v>41793.129999999997</v>
       </c>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A962" s="1">
         <v>44569.375</v>
       </c>
@@ -8058,7 +8059,7 @@
         <v>40841.74</v>
       </c>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A963" s="1">
         <v>44569.208333333336</v>
       </c>
@@ -8066,7 +8067,7 @@
         <v>41911.18</v>
       </c>
     </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A964" s="1">
         <v>44569.041666666664</v>
       </c>
@@ -8074,7 +8075,7 @@
         <v>42161.69</v>
       </c>
     </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A965" s="1">
         <v>44568.875</v>
       </c>
@@ -8082,7 +8083,7 @@
         <v>41975.66</v>
       </c>
     </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A966" s="1">
         <v>44568.708333333336</v>
       </c>
@@ -8090,7 +8091,7 @@
         <v>41887.75</v>
       </c>
     </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A967" s="1">
         <v>44568.541666666664</v>
       </c>
@@ -8098,7 +8099,7 @@
         <v>41909.46</v>
       </c>
     </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A968" s="1">
         <v>44568.375</v>
       </c>
@@ -8106,7 +8107,7 @@
         <v>41989.07</v>
       </c>
     </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A969" s="1">
         <v>44568.208333333336</v>
       </c>
@@ -8114,7 +8115,7 @@
         <v>41486.07</v>
       </c>
     </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A970" s="1">
         <v>44568.041666666664</v>
       </c>
@@ -8122,7 +8123,7 @@
         <v>42408.2</v>
       </c>
     </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A971" s="1">
         <v>44567.875</v>
       </c>
@@ -8130,7 +8131,7 @@
         <v>41837</v>
       </c>
     </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A972" s="1">
         <v>44567.708333333336</v>
       </c>
@@ -8138,7 +8139,7 @@
         <v>43001.59</v>
       </c>
     </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A973" s="1">
         <v>44567.541666666664</v>
       </c>
@@ -8146,7 +8147,7 @@
         <v>43114.55</v>
       </c>
     </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A974" s="1">
         <v>44567.375</v>
       </c>
@@ -8154,7 +8155,7 @@
         <v>43018.35</v>
       </c>
     </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A975" s="1">
         <v>44567.208333333336</v>
       </c>
@@ -8162,7 +8163,7 @@
         <v>43145.47</v>
       </c>
     </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A976" s="1">
         <v>44567.041666666664</v>
       </c>
@@ -8170,7 +8171,7 @@
         <v>42579.33</v>
       </c>
     </row>
-    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A977" s="1">
         <v>44566.875</v>
       </c>
@@ -8178,7 +8179,7 @@
         <v>43058.86</v>
       </c>
     </row>
-    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A978" s="1">
         <v>44566.708333333336</v>
       </c>
@@ -8186,7 +8187,7 @@
         <v>43546.34</v>
       </c>
     </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A979" s="1">
         <v>44566.541666666664</v>
       </c>
@@ -8194,7 +8195,7 @@
         <v>43654.7</v>
       </c>
     </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A980" s="1">
         <v>44566.375</v>
       </c>
@@ -8202,7 +8203,7 @@
         <v>46011.29</v>
       </c>
     </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A981" s="1">
         <v>44566.208333333336</v>
       </c>
@@ -8210,7 +8211,7 @@
         <v>46432.94</v>
       </c>
     </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A982" s="1">
         <v>44566.041666666664</v>
       </c>
@@ -8218,7 +8219,7 @@
         <v>46862.82</v>
       </c>
     </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A983" s="1">
         <v>44565.875</v>
       </c>
@@ -8226,7 +8227,7 @@
         <v>46309.84</v>
       </c>
     </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A984" s="1">
         <v>44565.708333333336</v>
       </c>
@@ -8234,7 +8235,7 @@
         <v>46111.3</v>
       </c>
     </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A985" s="1">
         <v>44565.541666666664</v>
       </c>
@@ -8242,7 +8243,7 @@
         <v>46293.41</v>
       </c>
     </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A986" s="1">
         <v>44565.375</v>
       </c>
@@ -8250,7 +8251,7 @@
         <v>46545.11</v>
       </c>
     </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A987" s="1">
         <v>44565.208333333336</v>
       </c>
@@ -8258,7 +8259,7 @@
         <v>46968.97</v>
       </c>
     </row>
-    <row r="988" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A988" s="1">
         <v>44565.041666666664</v>
       </c>
@@ -8266,7 +8267,7 @@
         <v>46356.13</v>
       </c>
     </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A989" s="1">
         <v>44564.875</v>
       </c>
@@ -8274,7 +8275,7 @@
         <v>46156.74</v>
       </c>
     </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A990" s="1">
         <v>44564.708333333336</v>
       </c>
@@ -8282,7 +8283,7 @@
         <v>46070.64</v>
       </c>
     </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A991" s="1">
         <v>44564.541666666664</v>
       </c>
@@ -8290,7 +8291,7 @@
         <v>46050.31</v>
       </c>
     </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A992" s="1">
         <v>44564.375</v>
       </c>
@@ -8298,7 +8299,7 @@
         <v>46590.400000000001</v>
       </c>
     </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A993" s="1">
         <v>44564.208333333336</v>
       </c>
@@ -8306,7 +8307,7 @@
         <v>47160.41</v>
       </c>
     </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A994" s="1">
         <v>44564.041666666664</v>
       </c>
@@ -8314,7 +8315,7 @@
         <v>46989.63</v>
       </c>
     </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A995" s="1">
         <v>44563.875</v>
       </c>
@@ -8322,7 +8323,7 @@
         <v>47092.51</v>
       </c>
     </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A996" s="1">
         <v>44563.708333333336</v>
       </c>
@@ -8330,7 +8331,7 @@
         <v>47125.8</v>
       </c>
     </row>
-    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A997" s="1">
         <v>44563.541666666664</v>
       </c>
@@ -8338,7 +8339,7 @@
         <v>47025.64</v>
       </c>
     </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A998" s="1">
         <v>44563.375</v>
       </c>
@@ -8346,7 +8347,7 @@
         <v>47416.959999999999</v>
       </c>
     </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A999" s="1">
         <v>44563.208333333336</v>
       </c>
@@ -8354,7 +8355,7 @@
         <v>47147.58</v>
       </c>
     </row>
-    <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1000" s="1">
         <v>44563.041666666664</v>
       </c>
@@ -8362,7 +8363,7 @@
         <v>47286.93</v>
       </c>
     </row>
-    <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1001" s="1">
         <v>44562.875</v>
       </c>
@@ -8370,7 +8371,7 @@
         <v>47088.05</v>
       </c>
     </row>
-    <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1002" s="1">
         <v>44562.708333333336</v>
       </c>
@@ -8378,7 +8379,7 @@
         <v>47385.3</v>
       </c>
     </row>
-    <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1003" s="1">
         <v>44562.541666666664</v>
       </c>
@@ -8386,7 +8387,7 @@
         <v>47320.65</v>
       </c>
     </row>
-    <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1004" s="1">
         <v>44562.375</v>
       </c>
@@ -8394,7 +8395,7 @@
         <v>47766.82</v>
       </c>
     </row>
-    <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1005" s="1">
         <v>44562.208333333336</v>
       </c>
@@ -8402,7 +8403,7 @@
         <v>47030.05</v>
       </c>
     </row>
-    <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1006" s="1">
         <v>44562.041666666664</v>
       </c>
@@ -8410,645 +8411,245 @@
         <v>47134.55</v>
       </c>
     </row>
-    <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1007" s="1">
-        <v>44926.875</v>
-      </c>
-      <c r="B1007">
-        <v>47202.6</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1008" s="1">
-        <v>44926.708333333336</v>
-      </c>
-      <c r="B1008">
-        <v>46789</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1009" s="1">
-        <v>44926.541666666664</v>
-      </c>
-      <c r="B1009">
-        <v>46328.02</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1010" s="1">
-        <v>44926.375</v>
-      </c>
-      <c r="B1010">
-        <v>47010.55</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1011" s="1">
-        <v>44926.208333333336</v>
-      </c>
-      <c r="B1011">
-        <v>47948.05</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1012" s="1">
-        <v>44926.041666666664</v>
-      </c>
-      <c r="B1012">
-        <v>48308.35</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1013" s="1">
-        <v>44925.875</v>
-      </c>
-      <c r="B1013">
-        <v>47287.28</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1014" s="1">
-        <v>44925.708333333336</v>
-      </c>
-      <c r="B1014">
-        <v>47130.87</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1015" s="1">
-        <v>44925.541666666664</v>
-      </c>
-      <c r="B1015">
-        <v>47241.55</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1016" s="1">
-        <v>44925.375</v>
-      </c>
-      <c r="B1016">
-        <v>47676.37</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1017" s="1">
-        <v>44925.208333333336</v>
-      </c>
-      <c r="B1017">
-        <v>47332.160000000003</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1018" s="1">
-        <v>44925.041666666664</v>
-      </c>
-      <c r="B1018">
-        <v>46769.38</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1019" s="1">
-        <v>44924.875</v>
-      </c>
-      <c r="B1019">
-        <v>46765.2</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1020" s="1">
-        <v>44924.708333333336</v>
-      </c>
-      <c r="B1020">
-        <v>46577.31</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1021" s="1">
-        <v>44924.541666666664</v>
-      </c>
-      <c r="B1021">
-        <v>47201</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1022" s="1">
-        <v>44924.375</v>
-      </c>
-      <c r="B1022">
-        <v>47567.88</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1023" s="1">
-        <v>44924.208333333336</v>
-      </c>
-      <c r="B1023">
-        <v>47417.86</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1024" s="1">
-        <v>44924.041666666664</v>
-      </c>
-      <c r="B1024">
-        <v>47950.21</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1025" s="1">
-        <v>44923.875</v>
-      </c>
-      <c r="B1025">
-        <v>47910.1</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1026" s="1">
-        <v>44923.708333333336</v>
-      </c>
-      <c r="B1026">
-        <v>47752.29</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1027" s="1">
-        <v>44923.541666666664</v>
-      </c>
-      <c r="B1027">
-        <v>47582.16</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1028" s="1">
-        <v>44923.375</v>
-      </c>
-      <c r="B1028">
-        <v>48030.03</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1029" s="1">
-        <v>44923.208333333336</v>
-      </c>
-      <c r="B1029">
-        <v>49041.31</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1030" s="1">
-        <v>44923.041666666664</v>
-      </c>
-      <c r="B1030">
-        <v>49045.440000000002</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1031" s="1">
-        <v>44922.875</v>
-      </c>
-      <c r="B1031">
-        <v>49216.77</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1032" s="1">
-        <v>44922.708333333336</v>
-      </c>
-      <c r="B1032">
-        <v>49839.79</v>
-      </c>
-    </row>
-    <row r="1033" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1033" s="1">
-        <v>44922.541666666664</v>
-      </c>
-      <c r="B1033">
-        <v>50989.52</v>
-      </c>
-    </row>
-    <row r="1034" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1034" s="1">
-        <v>44922.375</v>
-      </c>
-      <c r="B1034">
-        <v>51886.37</v>
-      </c>
-    </row>
-    <row r="1035" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1035" s="1">
-        <v>44922.208333333336</v>
-      </c>
-      <c r="B1035">
-        <v>51329.71</v>
-      </c>
-    </row>
-    <row r="1036" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1036" s="1">
-        <v>44922.041666666664</v>
-      </c>
-      <c r="B1036">
-        <v>50784.98</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1037" s="1">
-        <v>44921.875</v>
-      </c>
-      <c r="B1037">
-        <v>50884.9</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1038" s="1">
-        <v>44921.708333333336</v>
-      </c>
-      <c r="B1038">
-        <v>50812.07</v>
-      </c>
-    </row>
-    <row r="1039" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1039" s="1">
-        <v>44921.541666666664</v>
-      </c>
-      <c r="B1039">
-        <v>50809.54</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1040" s="1">
-        <v>44921.375</v>
-      </c>
-      <c r="B1040">
-        <v>50283.72</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1041" s="1">
-        <v>44921.208333333336</v>
-      </c>
-      <c r="B1041">
-        <v>49868.38</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1042" s="1">
-        <v>44921.041666666664</v>
-      </c>
-      <c r="B1042">
-        <v>50046.21</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1043" s="1">
-        <v>44920.875</v>
-      </c>
-      <c r="B1043">
-        <v>49894.3</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1044" s="1">
-        <v>44920.708333333336</v>
-      </c>
-      <c r="B1044">
-        <v>50562.21</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1045" s="1">
-        <v>44920.541666666664</v>
-      </c>
-      <c r="B1045">
-        <v>50998</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1046" s="1">
-        <v>44920.375</v>
-      </c>
-      <c r="B1046">
-        <v>50807.48</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1047" s="1">
-        <v>44920.208333333336</v>
-      </c>
-      <c r="B1047">
-        <v>50887.53</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1048" s="1">
-        <v>44920.041666666664</v>
-      </c>
-      <c r="B1048">
-        <v>50841.74</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1049" s="1">
-        <v>44919.875</v>
-      </c>
-      <c r="B1049">
-        <v>50913.35</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1050" s="1">
-        <v>44919.708333333336</v>
-      </c>
-      <c r="B1050">
-        <v>51019.66</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1051" s="1">
-        <v>44919.541666666664</v>
-      </c>
-      <c r="B1051">
-        <v>50898.04</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1052" s="1">
-        <v>44919.375</v>
-      </c>
-      <c r="B1052">
-        <v>51152.69</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1053" s="1">
-        <v>44919.208333333336</v>
-      </c>
-      <c r="B1053">
-        <v>51074.48</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1054" s="1">
-        <v>44919.041666666664</v>
-      </c>
-      <c r="B1054">
-        <v>51294.99</v>
-      </c>
-    </row>
-    <row r="1055" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1055" s="1">
-        <v>44918.875</v>
-      </c>
-      <c r="B1055">
-        <v>51032.67</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1056" s="1">
-        <v>44918.708333333336</v>
-      </c>
-      <c r="B1056">
-        <v>51364.5</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1057" s="1">
-        <v>44918.541666666664</v>
-      </c>
-      <c r="B1057">
-        <v>50838.65</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1058" s="1">
-        <v>44918.375</v>
-      </c>
-      <c r="B1058">
-        <v>50071.199999999997</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1059" s="1">
-        <v>44918.208333333336</v>
-      </c>
-      <c r="B1059">
-        <v>48625.52</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1060" s="1">
-        <v>44918.041666666664</v>
-      </c>
-      <c r="B1060">
-        <v>48397.95</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1061" s="1">
-        <v>44917.875</v>
-      </c>
-      <c r="B1061">
-        <v>48398.32</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1062" s="1">
-        <v>44917.708333333336</v>
-      </c>
-      <c r="B1062">
-        <v>48486.39</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1063" s="1">
-        <v>44917.541666666664</v>
-      </c>
-      <c r="B1063">
-        <v>49080.2</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1064" s="1">
-        <v>44917.375</v>
-      </c>
-      <c r="B1064">
-        <v>48731.54</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1065" s="1">
-        <v>44917.208333333336</v>
-      </c>
-      <c r="B1065">
-        <v>48583.5</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1066" s="1">
-        <v>44917.041666666664</v>
-      </c>
-      <c r="B1066">
-        <v>48945</v>
-      </c>
-    </row>
-    <row r="1067" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1067" s="1">
-        <v>44916.875</v>
-      </c>
-      <c r="B1067">
-        <v>48991.199999999997</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1068" s="1">
-        <v>44916.708333333336</v>
-      </c>
-      <c r="B1068">
-        <v>48840.49</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1069" s="1">
-        <v>44916.541666666664</v>
-      </c>
-      <c r="B1069">
-        <v>49062.23</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1070" s="1">
-        <v>44916.375</v>
-      </c>
-      <c r="B1070">
-        <v>48658.59</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1071" s="1">
-        <v>44916.208333333336</v>
-      </c>
-      <c r="B1071">
-        <v>48947.23</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1072" s="1">
-        <v>44916.041666666664</v>
-      </c>
-      <c r="B1072">
-        <v>48621.25</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1073" s="1">
-        <v>44915.875</v>
-      </c>
-      <c r="B1073">
-        <v>48619.09</v>
-      </c>
-    </row>
-    <row r="1074" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1074" s="1">
-        <v>44915.708333333336</v>
-      </c>
-      <c r="B1074">
-        <v>46960.62</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1075" s="1">
-        <v>44915.541666666664</v>
-      </c>
-      <c r="B1075">
-        <v>47004.2</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1076" s="1">
-        <v>44915.375</v>
-      </c>
-      <c r="B1076">
-        <v>46125.42</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1077" s="1">
-        <v>44915.208333333336</v>
-      </c>
-      <c r="B1077">
-        <v>45729.08</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1078" s="1">
-        <v>44915.041666666664</v>
-      </c>
-      <c r="B1078">
-        <v>45852.72</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1079" s="1">
-        <v>44914.875</v>
-      </c>
-      <c r="B1079">
-        <v>46432.5</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1080" s="1">
-        <v>44914.708333333336</v>
-      </c>
-      <c r="B1080">
-        <v>46630.99</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1081" s="1">
-        <v>44914.541666666664</v>
-      </c>
-      <c r="B1081">
-        <v>46733.11</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1082" s="1">
-        <v>44914.375</v>
-      </c>
-      <c r="B1082">
-        <v>47153.93</v>
-      </c>
-    </row>
-    <row r="1083" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1083" s="1">
-        <v>44914.208333333336</v>
-      </c>
-      <c r="B1083">
-        <v>47647.6</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1084" s="1">
-        <v>44914.041666666664</v>
-      </c>
-      <c r="B1084">
-        <v>47120.92</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1085" s="1">
-        <v>44913.875</v>
-      </c>
-      <c r="B1085">
-        <v>47621.52</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1086" s="1">
-        <v>44913.708333333336</v>
-      </c>
-      <c r="B1086">
-        <v>46603.37</v>
-      </c>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1007" s="1"/>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1008" s="1"/>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1009" s="1"/>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1010" s="1"/>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1011" s="1"/>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1012" s="1"/>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1013" s="1"/>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1014" s="1"/>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1015" s="1"/>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1016" s="1"/>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1017" s="1"/>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1018" s="1"/>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1019" s="1"/>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1020" s="1"/>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1021" s="1"/>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1022" s="1"/>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1023" s="1"/>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1024" s="1"/>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1025" s="1"/>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1026" s="1"/>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1027" s="1"/>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1028" s="1"/>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1029" s="1"/>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1030" s="1"/>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1031" s="1"/>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1032" s="1"/>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1033" s="1"/>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1034" s="1"/>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1035" s="1"/>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1036" s="1"/>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1037" s="1"/>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1038" s="1"/>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1039" s="1"/>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1040" s="1"/>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1041" s="1"/>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1042" s="1"/>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1043" s="1"/>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1044" s="1"/>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1045" s="1"/>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1046" s="1"/>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1047" s="1"/>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1048" s="1"/>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1049" s="1"/>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1050" s="1"/>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1051" s="1"/>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1052" s="1"/>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1053" s="1"/>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1054" s="1"/>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1055" s="1"/>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1056" s="1"/>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1057" s="1"/>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1058" s="1"/>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1059" s="1"/>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1060" s="1"/>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1061" s="1"/>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1062" s="1"/>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1063" s="1"/>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1064" s="1"/>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1065" s="1"/>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1066" s="1"/>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1067" s="1"/>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1068" s="1"/>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1069" s="1"/>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1070" s="1"/>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1071" s="1"/>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1072" s="1"/>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1073" s="1"/>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1074" s="1"/>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1075" s="1"/>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1076" s="1"/>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1077" s="1"/>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1078" s="1"/>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1079" s="1"/>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1080" s="1"/>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1081" s="1"/>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1082" s="1"/>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1083" s="1"/>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1084" s="1"/>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1085" s="1"/>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1086" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
